--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799C64EE-9575-D244-BD7F-59FEFF31715A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C3643-6868-3C4E-A2D8-A272BECC3EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2251,13 +2251,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>242</v>
+    <v>205.73</v>
     <v>92.25</v>
-    <v>1.0483</v>
-    <v>0.02</v>
-    <v>1.5650000000000001E-4</v>
-    <v>-0.32</v>
-    <v>-2.5040000000000001E-3</v>
+    <v>1.0314000000000001</v>
+    <v>2.87</v>
+    <v>2.0232999999999998E-2</v>
+    <v>-0.25</v>
+    <v>-1.727E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7273</v>
@@ -2265,24 +2265,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>128.13990000000001</v>
+    <v>148.34</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45022.999716260936</v>
+    <v>45065.953609120312</v>
     <v>0</v>
-    <v>123.70059999999999</v>
-    <v>30148136480</v>
+    <v>142.38999999999999</v>
+    <v>34313010696</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>126</v>
-    <v>127.8</v>
-    <v>127.82</v>
-    <v>127.5</v>
-    <v>235864000</v>
+    <v>142.74</v>
+    <v>141.85</v>
+    <v>144.72</v>
+    <v>144.47</v>
+    <v>237099300</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>3989171</v>
-    <v>5866656</v>
+    <v>6037453</v>
+    <v>3106148</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2444,9 +2444,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2866,10 +2866,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
+      <selection pane="bottomRight" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3483,15 +3483,15 @@
       </c>
       <c r="N16" s="48">
         <f>O101/G3</f>
-        <v>20.768986700137916</v>
+        <v>23.638159634167682</v>
       </c>
       <c r="O16" s="48">
         <f>O101/G25</f>
-        <v>-188.39877067671523</v>
+        <v>-214.42549318535461</v>
       </c>
       <c r="P16" s="49">
         <f>O101/G106</f>
-        <v>68.243192756493684</v>
+        <v>77.670784213683433</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="O95" s="61" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>1.0483</v>
+        <v>1.0314000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="O97" s="58">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.6079315000000003E-2</v>
+        <v>8.5351770000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="O100" s="56">
         <f>O99/O103</f>
-        <v>2.5053186813896414E-2</v>
+        <v>2.2079401344867338E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O101" s="40" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>30148136480</v>
+        <v>34313010696</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="O102" s="56">
         <f>O101/O103</f>
-        <v>0.97494681318610354</v>
+        <v>0.9779205986551327</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="O103" s="60">
         <f>O99+O101</f>
-        <v>30922852480</v>
+        <v>35087726696</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="O105" s="26">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>8.2737892535635224E-2</v>
+        <v>8.2423034431662226E-2</v>
       </c>
       <c r="P105" s="15"/>
     </row>
@@ -5807,7 +5807,7 @@
       <c r="K107" s="28"/>
       <c r="L107" s="38">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>33172373590.51907</v>
+        <v>33354262108.887505</v>
       </c>
       <c r="M107" s="31" t="s">
         <v>144</v>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="L108" s="38">
         <f>L107+L106</f>
-        <v>35040961826.149643</v>
+        <v>35222850344.518074</v>
       </c>
       <c r="M108" s="31" t="s">
         <v>139</v>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O108" s="35">
         <f>O105</f>
-        <v>8.2737892535635224E-2</v>
+        <v>8.2423034431662226E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="I110" s="40">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>26609445278.000328</v>
+        <v>26768581674.834183</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="I113" s="40">
         <f>I110+I111-I112</f>
-        <v>27831362278.000328</v>
+        <v>27990498674.834183</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="I115" s="63">
         <f>I113/I114</f>
-        <v>88.875721746790433</v>
+        <v>89.383902481298435</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I116" s="62" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>127.82</v>
+        <v>144.72</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="I117" s="43">
         <f>I115/I116-1</f>
-        <v>-0.30468063099053011</v>
+        <v>-0.38236662188157522</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C3643-6868-3C4E-A2D8-A272BECC3EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF94AE18-A571-FC4A-B8F9-F3FA70D0A2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2253,11 +2253,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.73</v>
     <v>92.25</v>
-    <v>1.0314000000000001</v>
-    <v>2.87</v>
-    <v>2.0232999999999998E-2</v>
-    <v>-0.25</v>
-    <v>-1.727E-3</v>
+    <v>1.0330999999999999</v>
+    <v>4.51</v>
+    <v>3.0144999999999998E-2</v>
+    <v>1.36</v>
+    <v>8.8240000000000002E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7273</v>
@@ -2265,24 +2265,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>148.34</v>
+    <v>158.18</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.953609120312</v>
+    <v>45072.999866793747</v>
     <v>0</v>
-    <v>142.38999999999999</v>
-    <v>34313010696</v>
+    <v>150</v>
+    <v>36541750000</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>142.74</v>
-    <v>141.85</v>
-    <v>144.72</v>
-    <v>144.47</v>
+    <v>150.29</v>
+    <v>149.61000000000001</v>
+    <v>154.12</v>
+    <v>155.47999999999999</v>
     <v>237099300</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>6037453</v>
-    <v>3106148</v>
+    <v>5657651</v>
+    <v>3451302</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2444,9 +2444,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2869,7 +2869,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I100" sqref="I100"/>
+      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3483,15 +3483,15 @@
       </c>
       <c r="N16" s="48">
         <f>O101/G3</f>
-        <v>23.638159634167682</v>
+        <v>25.173533370901229</v>
       </c>
       <c r="O16" s="48">
         <f>O101/G25</f>
-        <v>-214.42549318535461</v>
+        <v>-228.35311174018736</v>
       </c>
       <c r="P16" s="49">
         <f>O101/G106</f>
-        <v>77.670784213683433</v>
+        <v>82.715748967234447</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="O95" s="61" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>1.0314000000000001</v>
+        <v>1.0330999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="O97" s="58">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.5351770000000007E-2</v>
+        <v>8.5424954999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="O100" s="56">
         <f>O99/O103</f>
-        <v>2.2079401344867338E-2</v>
+        <v>2.076070118751331E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O101" s="40" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>34313010696</v>
+        <v>36541750000</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="O102" s="56">
         <f>O101/O103</f>
-        <v>0.9779205986551327</v>
+        <v>0.97923929881248672</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="O103" s="60">
         <f>O99+O101</f>
-        <v>35087726696</v>
+        <v>37316466000</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="O105" s="26">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>8.2423034431662226E-2</v>
+        <v>8.2669619841061054E-2</v>
       </c>
       <c r="P105" s="15"/>
     </row>
@@ -5807,7 +5807,7 @@
       <c r="K107" s="28"/>
       <c r="L107" s="38">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>33354262108.887505</v>
+        <v>33211645001.301514</v>
       </c>
       <c r="M107" s="31" t="s">
         <v>144</v>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="L108" s="38">
         <f>L107+L106</f>
-        <v>35222850344.518074</v>
+        <v>35080233236.932083</v>
       </c>
       <c r="M108" s="31" t="s">
         <v>139</v>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="O108" s="35">
         <f>O105</f>
-        <v>8.2423034431662226E-2</v>
+        <v>8.2669619841061054E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="I110" s="40">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>26768581674.834183</v>
+        <v>26643802930.796146</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="I113" s="40">
         <f>I110+I111-I112</f>
-        <v>27990498674.834183</v>
+        <v>27865719930.796146</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="I115" s="63">
         <f>I113/I114</f>
-        <v>89.383902481298435</v>
+        <v>88.985438301778032</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I116" s="62" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>144.72</v>
+        <v>154.12</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="I117" s="43">
         <f>I115/I116-1</f>
-        <v>-0.38236662188157522</v>
+        <v>-0.42262238319635326</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF94AE18-A571-FC4A-B8F9-F3FA70D0A2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D81E1-84E6-F74D-9CC8-68EB7C2B6BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -498,9 +498,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -525,9 +522,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -550,18 +544,43 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -966,7 +985,6 @@
     </xf>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -989,12 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1022,6 +1034,21 @@
     <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,11 +1336,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1353,7 +1380,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$G$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$G$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2094,13 +2121,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2129,6 +2156,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2253,36 +2340,33 @@
     <v>Powered by Refinitiv</v>
     <v>205.73</v>
     <v>92.25</v>
-    <v>1.0330999999999999</v>
-    <v>4.51</v>
-    <v>3.0144999999999998E-2</v>
-    <v>1.36</v>
-    <v>8.8240000000000002E-3</v>
+    <v>0.97670000000000001</v>
+    <v>1.95</v>
+    <v>1.3555999999999999E-2</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
-    <v>7273</v>
+    <v>7321</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>158.18</v>
+    <v>146.93989999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999866793747</v>
+    <v>45099.999987650001</v>
     <v>0</v>
-    <v>150</v>
-    <v>36541750000</v>
+    <v>141.5</v>
+    <v>34570404720</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>150.29</v>
-    <v>149.61000000000001</v>
-    <v>154.12</v>
-    <v>155.47999999999999</v>
-    <v>237099300</v>
+    <v>142.56</v>
+    <v>143.85</v>
+    <v>145.80000000000001</v>
+    <v>237108400</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>5657651</v>
-    <v>3451302</v>
+    <v>1532</v>
+    <v>5023616</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2314,8 +2398,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2335,7 +2417,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2352,7 +2433,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2363,16 +2444,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2436,19 +2514,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2492,9 +2564,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2502,9 +2571,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2863,24 +2929,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AM118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomRight" activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="7" width="15" customWidth="1"/>
-    <col min="8" max="12" width="19" customWidth="1"/>
-    <col min="13" max="16" width="21" customWidth="1"/>
+    <col min="2" max="8" width="15" customWidth="1"/>
+    <col min="9" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2902,7 +2968,7 @@
       <c r="G1" s="8">
         <v>2022</v>
       </c>
-      <c r="H1" s="23">
+      <c r="H1" s="8">
         <v>2023</v>
       </c>
       <c r="I1" s="23">
@@ -2917,46 +2983,50 @@
       <c r="L1" s="23">
         <v>2027</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+      <c r="M1" s="23">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" ht="40" x14ac:dyDescent="0.25">
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:39" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2978,39 +3048,42 @@
       <c r="G3" s="1">
         <v>1451594000</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="1">
+        <v>2241236000</v>
+      </c>
+      <c r="I3" s="24">
         <v>2290000000</v>
       </c>
-      <c r="I3" s="24">
+      <c r="J3" s="24">
         <v>2957000000</v>
       </c>
-      <c r="J3" s="24">
+      <c r="K3" s="24">
         <v>3806000000</v>
       </c>
-      <c r="K3" s="24">
+      <c r="L3" s="24">
         <v>4868000000</v>
       </c>
-      <c r="L3" s="24">
+      <c r="M3" s="24">
         <v>6020000000</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="N3" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="P3" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="Q3" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3026,50 +3099,53 @@
         <v>0.92700861406430124</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:L4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:M4" si="0">(F3/E3)-1</f>
         <v>0.81639880933834363</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>0.66003078548736438</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
+        <v>0.54398268386339432</v>
+      </c>
+      <c r="I4" s="16">
+        <f>(I3/G3)-1</f>
         <v>0.57757609910209062</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J4" s="16">
         <f t="shared" si="0"/>
         <v>0.29126637554585155</v>
       </c>
-      <c r="J4" s="16">
+      <c r="K4" s="16">
         <f t="shared" si="0"/>
         <v>0.28711531958065617</v>
       </c>
-      <c r="K4" s="16">
+      <c r="L4" s="16">
         <f t="shared" si="0"/>
         <v>0.27903310562270089</v>
       </c>
-      <c r="L4" s="16">
+      <c r="M4" s="16">
         <f t="shared" si="0"/>
         <v>0.23664749383730488</v>
       </c>
-      <c r="M4" s="46">
-        <f>(G4+F4+E4)/3</f>
-        <v>0.80114606963000312</v>
-      </c>
-      <c r="N4" s="46">
-        <f>(G20+F20+E20)/3</f>
-        <v>0.28779739161510814</v>
-      </c>
-      <c r="O4" s="46">
-        <f>(G29+F29+E29)/3</f>
-        <v>0.39139338345003249</v>
-      </c>
-      <c r="P4" s="17">
-        <f>(G105+F105+E105)/3</f>
-        <v>7.2733042778086556</v>
-      </c>
-      <c r="Q4" s="16"/>
+      <c r="N4" s="45">
+        <f>(G4+F4+H4)/3</f>
+        <v>0.67347075956303415</v>
+      </c>
+      <c r="O4" s="45">
+        <f>(G20+F20+H20)/3</f>
+        <v>9.301753392992225E-2</v>
+      </c>
+      <c r="P4" s="45">
+        <f>(G29+F29+H29)/3</f>
+        <v>0.31686467072325802</v>
+      </c>
+      <c r="Q4" s="17">
+        <f>(G106+F106+H106)/3</f>
+        <v>7.8473217867696903</v>
+      </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
@@ -3085,12 +3161,13 @@
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
-      <c r="AI4" s="18"/>
+      <c r="AG4" s="16"/>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="18"/>
-    </row>
-    <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="AM4" s="18"/>
+    </row>
+    <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3112,8 +3189,11 @@
       <c r="G5" s="1">
         <v>383221000</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>601231000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3135,20 +3215,23 @@
       <c r="G6" s="10">
         <v>1068373000</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="H6" s="10">
+        <v>1640005000</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="P6" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="Q6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3170,24 +3253,27 @@
       <c r="G7" s="2">
         <v>0.73599999999999999</v>
       </c>
-      <c r="M7" s="46">
-        <f>G7</f>
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="N7" s="46">
-        <f>G21</f>
-        <v>-8.0199999999999994E-2</v>
-      </c>
-      <c r="O7" s="46">
-        <f>G30</f>
-        <v>-0.16009999999999999</v>
-      </c>
-      <c r="P7" s="17">
-        <f>G106/G3</f>
-        <v>0.30433785204402886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="N7" s="45">
+        <f>H7</f>
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="O7" s="45">
+        <f>H21</f>
+        <v>-1.8599999999999998E-2</v>
+      </c>
+      <c r="P7" s="45">
+        <f>H30</f>
+        <v>-8.1799999999999998E-2</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>H107/H3</f>
+        <v>0.3020177259333689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3209,17 +3295,20 @@
       <c r="G8" s="1">
         <v>371283000</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>608364000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
         <v>0.74215565456441368</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:G9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:H9" si="1">C8/C3</f>
         <v>0.49588217461600648</v>
       </c>
       <c r="D9" s="15">
@@ -3238,22 +3327,26 @@
         <f t="shared" si="1"/>
         <v>0.25577606410607923</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.27144129400027484</v>
+      </c>
       <c r="I9" s="15"/>
-      <c r="M9" s="45" t="s">
+      <c r="J9" s="15"/>
+      <c r="N9" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="P9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="Q9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="P9" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -3275,24 +3368,27 @@
       <c r="G10" s="1">
         <v>223092000</v>
       </c>
-      <c r="M10" s="46">
-        <f>(G9+F9+E9)/3</f>
-        <v>0.25723326987731249</v>
-      </c>
-      <c r="N10" s="46">
-        <f>(G13+F13+E13)/3</f>
-        <v>0.63834313909178275</v>
-      </c>
-      <c r="O10" s="46">
-        <f>(G80+F80+E80)/3</f>
-        <v>0.18358173302802008</v>
-      </c>
-      <c r="P10" s="17">
-        <f>(G89+F89+E89)/3</f>
-        <v>0.10140811316236893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>317344000</v>
+      </c>
+      <c r="N10" s="45">
+        <f>(G9+F9+H9)/3</f>
+        <v>0.25757072625991556</v>
+      </c>
+      <c r="O10" s="45">
+        <f>(G13+F13+H13)/3</f>
+        <v>0.57378810025399529</v>
+      </c>
+      <c r="P10" s="45">
+        <f>(G80+F80+H80)/3</f>
+        <v>0.20653638510830544</v>
+      </c>
+      <c r="Q10" s="17">
+        <f>(G89+F89+H89)/3</f>
+        <v>8.0832301318894351E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3314,8 +3410,11 @@
       <c r="G11" s="1">
         <v>616546000</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>904409000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3337,29 +3436,32 @@
       <c r="G12" s="1">
         <v>839638000</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="H12" s="1">
+        <v>1221753000</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="N12" s="45" t="s">
+      <c r="P12" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="Q12" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="P12" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>1.3299838847284102</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:G13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:H13" si="2">C12/C3</f>
         <v>1.1521405955268123</v>
       </c>
       <c r="D13" s="15">
@@ -3378,49 +3480,56 @@
         <f t="shared" si="2"/>
         <v>0.57842482126545025</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.54512465443175107</v>
+      </c>
       <c r="I13" s="15"/>
-      <c r="M13" s="46">
-        <f>G28/G72</f>
-        <v>-0.22394792814098877</v>
-      </c>
-      <c r="N13" s="17">
-        <f>G28/G54</f>
-        <v>-6.422153996497329E-2</v>
-      </c>
-      <c r="O13" s="46">
-        <f>(G28-G98)/G73</f>
-        <v>-6.422153996497329E-2</v>
-      </c>
-      <c r="P13" s="21">
+      <c r="J13" s="15"/>
+      <c r="N13" s="45">
+        <f>H28/H72</f>
+        <v>-0.12519805061487072</v>
+      </c>
+      <c r="O13" s="17">
+        <f>H28/H54</f>
+        <v>-3.6455494236592167E-2</v>
+      </c>
+      <c r="P13" s="45">
+        <f>(H28-H98)/H73</f>
+        <v>-3.6628876095473148E-2</v>
+      </c>
+      <c r="Q13" s="21">
         <f>(G61+G56)/G72</f>
         <v>0.74661131044106688</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3442,20 +3551,23 @@
       <c r="G15" s="1">
         <v>1210921000</v>
       </c>
-      <c r="M15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>156</v>
+      <c r="H15" s="1">
+        <v>1830117000</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>121</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="P15" s="47" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q15" s="46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3477,24 +3589,27 @@
       <c r="G16" s="1">
         <v>1594142000</v>
       </c>
-      <c r="M16" s="20">
-        <f>(SUM(C35:G35)/5)</f>
-        <v>7.5729906868409996E-2</v>
-      </c>
-      <c r="N16" s="48">
-        <f>O101/G3</f>
-        <v>25.173533370901229</v>
-      </c>
-      <c r="O16" s="48">
-        <f>O101/G25</f>
-        <v>-228.35311174018736</v>
-      </c>
-      <c r="P16" s="49">
-        <f>O101/G106</f>
-        <v>82.715748967234447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>2431348000</v>
+      </c>
+      <c r="N16" s="20">
+        <f>(SUM(D35:H35)/5)</f>
+        <v>8.101030415292805E-2</v>
+      </c>
+      <c r="O16" s="65">
+        <f>P101/H3</f>
+        <v>15.424705260847139</v>
+      </c>
+      <c r="P16" s="65">
+        <f>P101/H25</f>
+        <v>-216.22314267307968</v>
+      </c>
+      <c r="Q16" s="66">
+        <f>P101/H107</f>
+        <v>51.072185293687482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3516,8 +3631,11 @@
       <c r="G17" s="1">
         <v>-25231000</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>25319000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3539,11 +3657,23 @@
       <c r="G18" s="1">
         <v>68810000</v>
       </c>
-      <c r="M18" s="50" t="s">
+      <c r="H18" s="1">
+        <v>93810000</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" s="19" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q18" s="46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3565,14 +3695,44 @@
       <c r="G19" s="10">
         <v>-116444000</v>
       </c>
-      <c r="M19" s="51">
-        <f>G40-G56-G61</f>
-        <v>1221917000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="10">
+        <v>-41714000</v>
+      </c>
+      <c r="I19" s="61">
+        <v>610500000</v>
+      </c>
+      <c r="J19" s="61">
+        <v>828700000</v>
+      </c>
+      <c r="K19" s="61">
+        <v>1086000000</v>
+      </c>
+      <c r="L19" s="61">
+        <v>1915000000</v>
+      </c>
+      <c r="M19" s="61">
+        <v>2465000000</v>
+      </c>
+      <c r="N19" s="48">
+        <f>H40-H56-H61</f>
+        <v>1921751000</v>
+      </c>
+      <c r="O19" s="65">
+        <f>P101/I3</f>
+        <v>15.096246602620088</v>
+      </c>
+      <c r="P19" s="65">
+        <f>P101/I28</f>
+        <v>60.927748889672188</v>
+      </c>
+      <c r="Q19" s="66">
+        <f>P101/I106</f>
+        <v>57.955414450963957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3588,18 +3748,40 @@
         <v>-5.7428143615116722E-2</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:G20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:H20" si="3">(F19/E19)-1</f>
         <v>-0.6014141780413893</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="3"/>
         <v>1.5222344965018304</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H20" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.64176771667067434</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ref="I20" si="4">(I19/H19)-1</f>
+        <v>-15.635374214891883</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="5">(J19/I19)-1</f>
+        <v>0.35741195741195741</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="6">(K19/J19)-1</f>
+        <v>0.31048630384940279</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20" si="7">(L19/K19)-1</f>
+        <v>0.76335174953959495</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" ref="M20" si="8">(M19/L19)-1</f>
+        <v>0.28720626631853796</v>
+      </c>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3621,8 +3803,31 @@
       <c r="G21" s="2">
         <v>-8.0199999999999994E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <v>-1.8599999999999998E-2</v>
+      </c>
+      <c r="I21" s="62">
+        <f>I19/I3</f>
+        <v>0.26659388646288212</v>
+      </c>
+      <c r="J21" s="62">
+        <f t="shared" ref="J21:M21" si="9">J19/J3</f>
+        <v>0.28025025363544132</v>
+      </c>
+      <c r="K21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.28533893851812925</v>
+      </c>
+      <c r="L21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.39338537387017253</v>
+      </c>
+      <c r="M21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.40946843853820597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3644,8 +3849,11 @@
       <c r="G22" s="10">
         <v>-142548000</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H22" s="10">
+        <v>-190112000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3667,8 +3875,11 @@
       <c r="G23" s="2">
         <v>-9.8199999999999996E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <v>-8.48E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3690,8 +3901,11 @@
       <c r="G24" s="1">
         <v>-17475000</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>30229000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3713,8 +3927,11 @@
       <c r="G25" s="10">
         <v>-160023000</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H25" s="10">
+        <v>-159883000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3736,8 +3953,11 @@
       <c r="G26" s="2">
         <v>-0.11020000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H26" s="2">
+        <v>-7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3759,8 +3979,11 @@
       <c r="G27" s="1">
         <v>72355000</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="1">
+        <v>22402000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3782,10 +4005,28 @@
       <c r="G28" s="11">
         <v>-232378000</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="11">
+        <v>-183245000</v>
+      </c>
+      <c r="I28" s="63">
+        <v>567400000</v>
+      </c>
+      <c r="J28" s="63">
+        <v>755500000</v>
+      </c>
+      <c r="K28" s="63">
+        <v>986900000</v>
+      </c>
+      <c r="L28" s="63">
+        <v>1382000000</v>
+      </c>
+      <c r="M28" s="63">
+        <v>1914000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3801,17 +4042,39 @@
         <v>1.2150460104085603E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:G29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:H29" si="10">(F28/E28)-1</f>
         <v>-0.34666629049436093</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.5086959807403728</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H29" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.21143567807623787</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" ref="I29" si="11">(I28/H28)-1</f>
+        <v>-4.0964009932058172</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="12">(J28/I28)-1</f>
+        <v>0.3315121607331688</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="13">(K28/J28)-1</f>
+        <v>0.30628722700198541</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="14">(L28/K28)-1</f>
+        <v>0.40034451312189678</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" ref="M29" si="15">(M28/L28)-1</f>
+        <v>0.38494934876989872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3833,8 +4096,31 @@
       <c r="G30" s="2">
         <v>-0.16009999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <v>-8.1799999999999998E-2</v>
+      </c>
+      <c r="I30" s="62">
+        <f>I28/I3</f>
+        <v>0.24777292576419213</v>
+      </c>
+      <c r="J30" s="62">
+        <f t="shared" ref="J30:M30" si="16">J28/J3</f>
+        <v>0.25549543456205615</v>
+      </c>
+      <c r="K30" s="62">
+        <f t="shared" si="16"/>
+        <v>0.25930110352075669</v>
+      </c>
+      <c r="L30" s="62">
+        <f t="shared" si="16"/>
+        <v>0.2838948233360723</v>
+      </c>
+      <c r="M30" s="62">
+        <f t="shared" si="16"/>
+        <v>0.31794019933554818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3856,9 +4142,27 @@
       <c r="G31" s="12">
         <v>-1.03</v>
       </c>
-      <c r="P31" s="15"/>
-    </row>
-    <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H31" s="12">
+        <v>-0.79</v>
+      </c>
+      <c r="I31" s="64">
+        <v>2.39</v>
+      </c>
+      <c r="J31" s="64">
+        <v>3.19</v>
+      </c>
+      <c r="K31" s="64">
+        <v>4.16</v>
+      </c>
+      <c r="L31" s="64">
+        <v>5.83</v>
+      </c>
+      <c r="M31" s="64">
+        <v>8.07</v>
+      </c>
+      <c r="Q31" s="15"/>
+    </row>
+    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3880,8 +4184,11 @@
       <c r="G32" s="12">
         <v>-1.03</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="12">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3903,8 +4210,11 @@
       <c r="G33" s="1">
         <v>227142000</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>233139000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3926,10 +4236,13 @@
       <c r="G34" s="1">
         <v>227142000</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>233139000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -3937,74 +4250,82 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:G35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:H35" si="17">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.13516197240686439</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.47070821682808556</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.3103289920828819E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H35" s="22">
+        <f t="shared" si="17"/>
+        <v>2.6401986422590274E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>63179000</v>
@@ -4021,13 +4342,16 @@
       <c r="G38" s="1">
         <v>1996633000</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>2455369000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>2593000</v>
@@ -4039,18 +4363,21 @@
         <v>647266000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H39" s="1">
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>65772000</v>
@@ -4067,14 +4394,17 @@
       <c r="G40" s="1">
         <v>1996633000</v>
       </c>
-      <c r="P40" s="15"/>
-    </row>
-    <row r="41" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>2705369000</v>
+      </c>
+      <c r="Q40" s="15"/>
+    </row>
+    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>59812000</v>
@@ -4091,36 +4421,42 @@
       <c r="G41" s="1">
         <v>368145000</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>626181000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>28027000</v>
@@ -4137,13 +4473,16 @@
       <c r="G43" s="1">
         <v>206174000</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>308717000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>153611000</v>
@@ -4160,13 +4499,16 @@
       <c r="G44" s="10">
         <v>2570952000</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H44" s="10">
+        <v>3640267000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>40754000</v>
@@ -4183,13 +4525,16 @@
       <c r="G45" s="1">
         <v>292312000</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>532271000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>8421000</v>
@@ -4206,13 +4551,16 @@
       <c r="G46" s="1">
         <v>416445000</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <v>430645000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>1736000</v>
@@ -4229,13 +4577,16 @@
       <c r="G47" s="1">
         <v>97336000</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>86889000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>10157000</v>
@@ -4252,19 +4603,22 @@
       <c r="G48" s="1">
         <v>513781000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>517534000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1">
         <v>1000000</v>
@@ -4275,36 +4629,42 @@
       <c r="G49" s="1">
         <v>23632000</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>47270000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>13181000</v>
@@ -4321,13 +4681,16 @@
       <c r="G51" s="1">
         <v>217704000</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>289198000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>64092000</v>
@@ -4344,36 +4707,42 @@
       <c r="G52" s="1">
         <v>1047429000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>1386273000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>217703000</v>
@@ -4390,13 +4759,16 @@
       <c r="G54" s="11">
         <v>3618381000</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="11">
+        <v>5026540000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>12261000</v>
@@ -4413,22 +4785,25 @@
       <c r="G55" s="1">
         <v>47634000</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>45372000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1">
         <v>8977000</v>
@@ -4436,36 +4811,42 @@
       <c r="G56" s="1">
         <v>9820000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>13046000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>109003000</v>
@@ -4482,13 +4863,16 @@
       <c r="G58" s="1">
         <v>1136502000</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>1727484000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>44626000</v>
@@ -4505,13 +4889,16 @@
       <c r="G59" s="1">
         <v>212874000</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>323170000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>165890000</v>
@@ -4528,22 +4915,25 @@
       <c r="G60" s="10">
         <v>1406830000</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H60" s="10">
+        <v>2109072000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>15971000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1">
         <v>770015000</v>
@@ -4551,13 +4941,16 @@
       <c r="G61" s="1">
         <v>764896000</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <v>770572000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>49947000</v>
@@ -4574,36 +4967,42 @@
       <c r="G62" s="1">
         <v>392819000</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>627629000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>355369000</v>
@@ -4620,13 +5019,16 @@
       <c r="G64" s="1">
         <v>16193000</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>31833000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>421287000</v>
@@ -4643,36 +5045,42 @@
       <c r="G65" s="1">
         <v>1173908000</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <v>1430034000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>587177000</v>
@@ -4689,13 +5097,16 @@
       <c r="G67" s="10">
         <v>2580738000</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H67" s="10">
+        <v>3539106000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>22000</v>
@@ -4712,13 +5123,16 @@
       <c r="G68" s="1">
         <v>115000</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-378948000</v>
@@ -4735,13 +5149,16 @@
       <c r="G69" s="1">
         <v>-964918000</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>-1148163000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>970000</v>
@@ -4758,13 +5175,16 @@
       <c r="G70" s="1">
         <v>-1240000</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <v>-1019000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>8482000</v>
@@ -4781,13 +5201,16 @@
       <c r="G71" s="1">
         <v>2003686000</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <v>2612705000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-369474000</v>
@@ -4804,14 +5227,17 @@
       <c r="G72" s="10">
         <v>1037643000</v>
       </c>
-      <c r="M72" s="27"/>
-    </row>
-    <row r="73" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="10">
+        <v>1463641000</v>
+      </c>
+      <c r="N72" s="27"/>
+    </row>
+    <row r="73" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>217703000</v>
@@ -4828,54 +5254,61 @@
       <c r="G73" s="11">
         <v>3618381000</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="11">
+        <v>5002747000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>66</v>
       </c>
@@ -4897,8 +5330,11 @@
       <c r="G76" s="1">
         <v>-232378000</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <v>-182285000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>13</v>
       </c>
@@ -4920,31 +5356,37 @@
       <c r="G77" s="1">
         <v>68810000</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <v>93810000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1">
         <v>-13956000</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <v>1306000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
@@ -4966,43 +5408,50 @@
       <c r="G79" s="1">
         <v>309952000</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <v>526504000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:G80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:H80" si="18">B79/B3</f>
         <v>3.780453123518817E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.10393930207491242</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.2077782759062384E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.16605284859361921</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.17116708102804315</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.21352526946239789</v>
       </c>
-      <c r="H80" s="15"/>
+      <c r="H80" s="15">
+        <f t="shared" si="18"/>
+        <v>0.23491680483447527</v>
+      </c>
       <c r="I80" s="15"/>
-      <c r="M80" s="15"/>
+      <c r="J80" s="15"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
-    </row>
-    <row r="81" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q80" s="15"/>
+    </row>
+    <row r="81" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -5024,8 +5473,11 @@
       <c r="G81" s="1">
         <v>321723000</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <v>501672000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -5047,49 +5499,55 @@
       <c r="G82" s="1">
         <v>-125354000</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <v>-258109000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N83" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="O83" s="67"/>
-    </row>
-    <row r="84" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O83" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="P83" s="73"/>
+    </row>
+    <row r="84" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1">
         <v>11325000</v>
@@ -5097,12 +5555,15 @@
       <c r="G84" s="1">
         <v>33248000</v>
       </c>
-      <c r="N84" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="O84" s="69"/>
-    </row>
-    <row r="85" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <v>-15463000</v>
+      </c>
+      <c r="O84" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="P84" s="75"/>
+    </row>
+    <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5124,15 +5585,18 @@
       <c r="G85" s="1">
         <v>382100000</v>
       </c>
-      <c r="N85" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="O85" s="54">
-        <f>G17</f>
-        <v>-25231000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O85" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="P85" s="51">
+        <f>H17</f>
+        <v>25319000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -5154,15 +5618,18 @@
       <c r="G86" s="1">
         <v>120633000</v>
       </c>
-      <c r="N86" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="O86" s="54">
-        <f>G56</f>
-        <v>9820000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O86" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="P86" s="51">
+        <f>H56</f>
+        <v>13046000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -5184,15 +5651,18 @@
       <c r="G87" s="10">
         <v>574784000</v>
       </c>
-      <c r="N87" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="O87" s="54">
-        <f>G61</f>
-        <v>764896000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H87" s="10">
+        <v>941007000</v>
+      </c>
+      <c r="O87" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P87" s="51">
+        <f>H61</f>
+        <v>770572000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -5214,68 +5684,75 @@
       <c r="G88" s="1">
         <v>-112143000</v>
       </c>
-      <c r="N88" s="55" t="s">
+      <c r="H88" s="1">
+        <v>-235019000</v>
+      </c>
+      <c r="O88" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P88" s="53">
+        <f>P85/(P86+P87)</f>
+        <v>3.231038592783729E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:H89" si="19">(-1*B88)/B3</f>
+        <v>0.12495971182102569</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.19288938291565616</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.14350502753938774</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.16658877097211749</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.038049581559813E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.725507269939115E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.10486133544169378</v>
+      </c>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="O89" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="O88" s="56">
-        <f>O85/(O86+O87)</f>
-        <v>-3.2568063651712373E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:G89" si="7">(-1*B88)/B3</f>
-        <v>0.12495971182102569</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.19288938291565616</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14350502753938774</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16658877097211749</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.038049581559813E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.725507269939115E-2</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="N89" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="O89" s="54">
-        <f>G27</f>
-        <v>72355000</v>
-      </c>
-      <c r="P89" s="15"/>
-    </row>
-    <row r="90" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="P89" s="51">
+        <f>H27</f>
+        <v>22402000</v>
+      </c>
+      <c r="Q89" s="15"/>
+    </row>
+    <row r="90" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1">
         <v>-6471000</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-85517000</v>
@@ -5283,15 +5760,18 @@
       <c r="G90" s="1">
         <v>-414518000</v>
       </c>
-      <c r="N90" s="53" t="s">
+      <c r="H90" s="1">
+        <v>-18349000</v>
+      </c>
+      <c r="O90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="O90" s="54">
-        <f>G25</f>
-        <v>-160023000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="P90" s="51">
+        <f>H25</f>
+        <v>-159883000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
@@ -5313,15 +5793,18 @@
       <c r="G91" s="1">
         <v>-16309000</v>
       </c>
-      <c r="N91" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="O91" s="56">
-        <f>O89/O90</f>
-        <v>-0.4521537528980209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>-271872000</v>
+      </c>
+      <c r="O91" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="P91" s="53">
+        <f>P89/P90</f>
+        <v>-0.14011495906381541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -5341,17 +5824,20 @@
         <v>731191000</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N92" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="O92" s="58">
-        <f>O88*(1-O91)</f>
-        <v>-4.7293835856455746E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O92" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="P92" s="55">
+        <f>P88*(1-P91)</f>
+        <v>3.6837554329452286E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -5373,12 +5859,15 @@
       <c r="G93" s="1">
         <v>-21546000</v>
       </c>
-      <c r="N93" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="O93" s="71"/>
-    </row>
-    <row r="94" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <v>-31418000</v>
+      </c>
+      <c r="O93" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="P93" s="77"/>
+    </row>
+    <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -5400,14 +5889,18 @@
       <c r="G94" s="10">
         <v>-564516000</v>
       </c>
-      <c r="N94" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="O94" s="59">
-        <v>4.095E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H94" s="10">
+        <v>-556658000</v>
+      </c>
+      <c r="O94" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="P94" s="56">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -5421,82 +5914,91 @@
         <v>-26158000</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1">
         <v>-219000</v>
       </c>
-      <c r="N95" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="O95" s="61" cm="1">
-        <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>1.0330999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O95" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="P95" s="58" cm="1">
+        <f t="array" ref="P95">_FV(A1,"Beta")</f>
+        <v>0.97670000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>665092000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1">
         <v>15899000</v>
       </c>
-      <c r="N96" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="O96" s="59">
+      <c r="H96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O96" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="P96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N97" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="O97" s="58">
-        <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.5424954999999997E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O97" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="P97" s="55">
+        <f>(P94)+((P95)*(P96-P94))</f>
+        <v>8.2910259000000014E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5518,12 +6020,15 @@
       <c r="G98" s="36">
         <v>0</v>
       </c>
-      <c r="N98" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="O98" s="71"/>
-    </row>
-    <row r="99" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="O98" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="P98" s="77"/>
+    </row>
+    <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5545,15 +6050,18 @@
       <c r="G99" s="1">
         <v>56851000</v>
       </c>
-      <c r="N99" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="O99" s="54">
-        <f>O86+O87</f>
-        <v>774716000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <v>77437000</v>
+      </c>
+      <c r="O99" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="P99" s="51">
+        <f>P86+P87</f>
+        <v>783618000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -5575,20 +6083,23 @@
       <c r="G100" s="10">
         <v>72531000</v>
       </c>
-      <c r="N100" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="O100" s="56">
-        <f>O99/O103</f>
-        <v>2.076070118751331E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H100" s="10">
+        <v>77437000</v>
+      </c>
+      <c r="O100" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="P100" s="53">
+        <f>P99/P103</f>
+        <v>2.2164889302871388E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1">
         <v>618000</v>
@@ -5605,15 +6116,18 @@
       <c r="G101" s="1">
         <v>-4774000</v>
       </c>
-      <c r="N101" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="O101" s="40" cm="1">
-        <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>36541750000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="H101" s="1">
+        <v>-1495000</v>
+      </c>
+      <c r="O101" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="P101" s="39" cm="1">
+        <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
+        <v>34570404720</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -5635,15 +6149,18 @@
       <c r="G102" s="10">
         <v>78025000</v>
       </c>
-      <c r="N102" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="O102" s="56">
-        <f>O101/O103</f>
-        <v>0.97923929881248672</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="10">
+        <v>460291000</v>
+      </c>
+      <c r="O102" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="P102" s="53">
+        <f>P101/P103</f>
+        <v>0.97783511069712858</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -5665,15 +6182,18 @@
       <c r="G103" s="1">
         <v>1918608000</v>
       </c>
-      <c r="N103" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="O103" s="60">
-        <f>O99+O101</f>
-        <v>37316466000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H103" s="1">
+        <v>1996633000</v>
+      </c>
+      <c r="O103" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="P103" s="57">
+        <f>P99+P101</f>
+        <v>35354022720</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5695,257 +6215,303 @@
       <c r="G104" s="11">
         <v>1996633000</v>
       </c>
-      <c r="N104" s="70" t="s">
+      <c r="H104" s="11">
+        <v>2456924000</v>
+      </c>
+      <c r="O104" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="P104" s="77"/>
+    </row>
+    <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:G105" si="20">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-46934800</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="20"/>
+        <v>-77858000</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>-80644200</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>-76066000</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>98931800</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>164351600</v>
+      </c>
+      <c r="H105" s="1">
+        <f>(H22*(1-0.2))+H77+H88+H81</f>
+        <v>208373400</v>
+      </c>
+      <c r="I105" s="37">
+        <f>H105*(1+$P$106)</f>
+        <v>278038395.13268656</v>
+      </c>
+      <c r="J105" s="37">
+        <f t="shared" ref="J105:M105" si="21">I105*(1+$P$106)</f>
+        <v>370994326.37735885</v>
+      </c>
+      <c r="K105" s="37">
+        <f t="shared" si="21"/>
+        <v>495027998.33996558</v>
+      </c>
+      <c r="L105" s="37">
+        <f t="shared" si="21"/>
+        <v>660529559.93514657</v>
+      </c>
+      <c r="M105" s="37">
+        <f t="shared" si="21"/>
+        <v>881362874.44591236</v>
+      </c>
+      <c r="N105" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="O105" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="O104" s="71"/>
-    </row>
-    <row r="105" spans="1:16" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+      <c r="P105" s="26">
+        <f>(P100*P92)+(P102*P97)</f>
+        <v>8.1889062601093437E-2</v>
+      </c>
+      <c r="Q105" s="15"/>
+    </row>
+    <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:H106" si="22">(C107/B107)-1</f>
         <v>0.36934024286487732</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f t="shared" si="22"/>
         <v>-0.25878605076761452</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f t="shared" si="22"/>
         <v>-1.1898404279639705</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f t="shared" si="22"/>
         <v>22.500561978163134</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f t="shared" si="22"/>
         <v>0.50919128322680485</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="25" t="s">
+      <c r="H106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.53221209891913301</v>
+      </c>
+      <c r="I106" s="67">
+        <v>596500000</v>
+      </c>
+      <c r="J106" s="67">
+        <v>725800000</v>
+      </c>
+      <c r="K106" s="67">
+        <v>903100000</v>
+      </c>
+      <c r="L106" s="67">
+        <v>1813000000</v>
+      </c>
+      <c r="M106" s="67">
+        <v>2068000000</v>
+      </c>
+      <c r="N106" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="O106" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="O105" s="26">
-        <f>(O100*O92)+(O102*O97)</f>
-        <v>8.2669619841061054E-2</v>
-      </c>
-      <c r="P105" s="15"/>
-    </row>
-    <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="P106" s="30">
+        <f>(SUM(I4:M4)/5)</f>
+        <v>0.33432767873772085</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
         <v>-64645000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-88521000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-65613000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>12456000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>292723000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>441775000</v>
       </c>
-      <c r="H106" s="37">
-        <f>G106*(1+$O$106)</f>
-        <v>589472610.2743566</v>
-      </c>
-      <c r="I106" s="37">
-        <f>H106*(1+$O$106)</f>
-        <v>786549619.74684739</v>
-      </c>
-      <c r="J106" s="37">
-        <f>I106*(1+$O$106)</f>
-        <v>1049514928.3288478</v>
-      </c>
-      <c r="K106" s="37">
-        <f>J106*(1+$O$106)</f>
-        <v>1400396818.1176169</v>
-      </c>
-      <c r="L106" s="37">
-        <f>K106*(1+$O$106)</f>
-        <v>1868588235.6305699</v>
-      </c>
-      <c r="M106" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="N106" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="O106" s="30">
-        <f>(SUM(H4:L4)/5)</f>
-        <v>0.33432767873772085</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="28"/>
+      <c r="H107" s="1">
+        <v>676893000</v>
+      </c>
       <c r="I107" s="28"/>
       <c r="J107" s="28"/>
       <c r="K107" s="28"/>
-      <c r="L107" s="38">
-        <f>L106*(1+O107)/(O108-O107)</f>
-        <v>33211645001.301514</v>
-      </c>
-      <c r="M107" s="31" t="s">
+      <c r="L107" s="28"/>
+      <c r="M107" s="68">
+        <f>M106*(1+P107)/(P108-P107)</f>
+        <v>37260237787.065559</v>
+      </c>
+      <c r="N107" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="O107" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="P107" s="33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="I108" s="68">
+        <f t="shared" ref="I108:L108" si="23">I107+I106</f>
+        <v>596500000</v>
+      </c>
+      <c r="J108" s="68">
+        <f t="shared" si="23"/>
+        <v>725800000</v>
+      </c>
+      <c r="K108" s="68">
+        <f t="shared" si="23"/>
+        <v>903100000</v>
+      </c>
+      <c r="L108" s="68">
+        <f t="shared" si="23"/>
+        <v>1813000000</v>
+      </c>
+      <c r="M108" s="68">
+        <f>M107+M106</f>
+        <v>39328237787.065559</v>
+      </c>
+      <c r="N108" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O108" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="N107" s="32" t="s">
+      <c r="P108" s="35">
+        <f>P105</f>
+        <v>8.1889062601093437E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="I109" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="H108" s="38">
-        <f t="shared" ref="H108:J108" si="8">H107+H106</f>
-        <v>589472610.2743566</v>
-      </c>
-      <c r="I108" s="38">
-        <f t="shared" si="8"/>
-        <v>786549619.74684739</v>
-      </c>
-      <c r="J108" s="38">
-        <f t="shared" si="8"/>
-        <v>1049514928.3288478</v>
-      </c>
-      <c r="K108" s="38">
-        <f>K107+K106</f>
-        <v>1400396818.1176169</v>
-      </c>
-      <c r="L108" s="38">
-        <f>L107+L106</f>
-        <v>35080233236.932083</v>
-      </c>
-      <c r="M108" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="N108" s="34" t="s">
+      <c r="J109" s="71"/>
+    </row>
+    <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="I110" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="O108" s="35">
-        <f>O105</f>
-        <v>8.2669619841061054E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="64" t="s">
+      <c r="J110" s="39">
+        <f>NPV(P108,I108,J108,K108,L108,M108)</f>
+        <v>29741196664.45533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="I111" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="I109" s="65"/>
-    </row>
-    <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="H110" s="39" t="s">
+      <c r="J111" s="39">
+        <f>H40</f>
+        <v>2705369000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="I112" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="J112" s="39">
+        <f>P99</f>
+        <v>783618000</v>
+      </c>
+    </row>
+    <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I113" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="I110" s="40">
-        <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>26643802930.796146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="H111" s="39" t="s">
+      <c r="J113" s="39">
+        <f>J110+J111-J112</f>
+        <v>31662947664.45533</v>
+      </c>
+    </row>
+    <row r="114" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="J114" s="49">
+        <f>G34*(1+(5*0.05))</f>
+        <v>283927500</v>
+      </c>
+    </row>
+    <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I115" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="I111" s="40">
-        <f>G40</f>
-        <v>1996633000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="H112" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I112" s="40">
-        <f>O99</f>
-        <v>774716000</v>
-      </c>
-    </row>
-    <row r="113" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H113" s="39" t="s">
+      <c r="J115" s="60">
+        <f>J113/J114</f>
+        <v>111.51772077187074</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I116" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="I113" s="40">
-        <f>I110+I111-I112</f>
-        <v>27865719930.796146</v>
-      </c>
-    </row>
-    <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H114" s="39" t="s">
+      <c r="J116" s="59" cm="1">
+        <f t="array" ref="J116">_FV(A1,"Price")</f>
+        <v>145.80000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I117" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="I114" s="52">
-        <f>G34*(1+(5*M16))</f>
-        <v>313149212.52952188</v>
-      </c>
-    </row>
-    <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="41" t="s">
+      <c r="J117" s="42">
+        <f>J115/J116-1</f>
+        <v>-0.2351322306456054</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I118" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="I115" s="63">
-        <f>I113/I114</f>
-        <v>88.985438301778032</v>
-      </c>
-    </row>
-    <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H116" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="I116" s="62" cm="1">
-        <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>154.12</v>
-      </c>
-    </row>
-    <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H117" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="I117" s="43">
-        <f>I115/I116-1</f>
-        <v>-0.42262238319635326</v>
-      </c>
-    </row>
-    <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H118" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="I118" s="44" t="str">
-        <f>IF(I115&gt;I116,"BUY","SELL")</f>
+      <c r="J118" s="43" t="str">
+        <f>IF(J115&gt;J116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="O104:P104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CRWD" display="ROIC.AI | CRWD" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5961,9 +6527,12 @@
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1535527/000153552721000007/0001535527-21-000007-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1535527/000153552722000006/0001535527-22-000006-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1535527/000153552722000006/0001535527-22-000006-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H1" r:id="rId14" display="https://finbox.com/NASDAQGS:CRWD/explorer/revenue_proj" xr:uid="{6392E823-401A-E146-8E1E-52CD472DB84C}"/>
+    <hyperlink ref="I1" r:id="rId14" display="https://finbox.com/NASDAQGS:CRWD/explorer/revenue_proj" xr:uid="{6392E823-401A-E146-8E1E-52CD472DB84C}"/>
+    <hyperlink ref="H36" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1535527/000153552723000008/0001535527-23-000008-index.htm" xr:uid="{CBD97F73-9851-F842-98DD-410ED5E5C4D8}"/>
+    <hyperlink ref="H74" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1535527/000153552723000008/0001535527-23-000008-index.htm" xr:uid="{C6421D81-E573-7B49-84F9-577686F587B0}"/>
+    <hyperlink ref="N106" r:id="rId17" xr:uid="{696891C6-4F42-6F4B-A128-0F8ECA29C002}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D81E1-84E6-F74D-9CC8-68EB7C2B6BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D710B2-6876-6F4D-84DE-AFFA2259C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,19 +568,26 @@
   </si>
   <si>
     <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -912,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1048,6 +1055,12 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2176,12 +2189,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2198,14 +2212,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2213,6 +2227,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2340,9 +2355,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.73</v>
     <v>92.25</v>
-    <v>0.97670000000000001</v>
-    <v>1.95</v>
-    <v>1.3555999999999999E-2</v>
+    <v>0.98229999999999995</v>
+    <v>-1.84</v>
+    <v>-1.2808999999999999E-2</v>
+    <v>0.19</v>
+    <v>1.34E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7321</v>
@@ -2350,23 +2367,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>146.93989999999999</v>
+    <v>145.1799</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999987650001</v>
+    <v>45103.944973483594</v>
     <v>0</v>
-    <v>141.5</v>
-    <v>34570404720</v>
+    <v>141.35</v>
+    <v>33624342204</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>142.56</v>
-    <v>143.85</v>
-    <v>145.80000000000001</v>
+    <v>143.04</v>
+    <v>143.65</v>
+    <v>141.81</v>
+    <v>142</v>
     <v>237108400</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>1532</v>
-    <v>5023616</v>
+    <v>2185207</v>
+    <v>5068321</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2398,6 +2416,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2417,6 +2437,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2433,7 +2454,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2444,13 +2465,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2514,13 +2538,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2564,6 +2594,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2571,6 +2604,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2932,10 +2968,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G120" sqref="G120"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3052,19 +3088,19 @@
         <v>2241236000</v>
       </c>
       <c r="I3" s="24">
-        <v>2290000000</v>
+        <v>3022000000</v>
       </c>
       <c r="J3" s="24">
-        <v>2957000000</v>
+        <v>3878000000</v>
       </c>
       <c r="K3" s="24">
-        <v>3806000000</v>
+        <v>4874000000</v>
       </c>
       <c r="L3" s="24">
-        <v>4868000000</v>
+        <v>6775000000</v>
       </c>
       <c r="M3" s="24">
-        <v>6020000000</v>
+        <v>8255000000</v>
       </c>
       <c r="N3" s="44" t="s">
         <v>109</v>
@@ -3111,24 +3147,24 @@
         <v>0.54398268386339432</v>
       </c>
       <c r="I4" s="16">
-        <f>(I3/G3)-1</f>
-        <v>0.57757609910209062</v>
+        <f>(I3/H3)-1</f>
+        <v>0.34836313534139207</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.29126637554585155</v>
+        <v>0.28325612177365977</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28711531958065617</v>
+        <v>0.25683341928829284</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27903310562270089</v>
+        <v>0.39002872384078779</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23664749383730488</v>
+        <v>0.21845018450184495</v>
       </c>
       <c r="N4" s="45">
         <f>(G4+F4+H4)/3</f>
@@ -3598,15 +3634,15 @@
       </c>
       <c r="O16" s="65">
         <f>P101/H3</f>
-        <v>15.424705260847139</v>
+        <v>15.002588841157291</v>
       </c>
       <c r="P16" s="65">
         <f>P101/H25</f>
-        <v>-216.22314267307968</v>
+        <v>-210.30592498264355</v>
       </c>
       <c r="Q16" s="66">
         <f>P101/H107</f>
-        <v>51.072185293687482</v>
+        <v>49.674530840177106</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3719,15 +3755,15 @@
       </c>
       <c r="O19" s="65">
         <f>P101/I3</f>
-        <v>15.096246602620088</v>
+        <v>11.126519590999338</v>
       </c>
       <c r="P19" s="65">
         <f>P101/I28</f>
-        <v>60.927748889672188</v>
+        <v>59.260384568205851</v>
       </c>
       <c r="Q19" s="66">
         <f>P101/I106</f>
-        <v>57.955414450963957</v>
+        <v>56.369391792120702</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,7 +3817,7 @@
       </c>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3808,23 +3844,29 @@
       </c>
       <c r="I21" s="62">
         <f>I19/I3</f>
-        <v>0.26659388646288212</v>
+        <v>0.20201853077432164</v>
       </c>
       <c r="J21" s="62">
         <f t="shared" ref="J21:M21" si="9">J19/J3</f>
-        <v>0.28025025363544132</v>
+        <v>0.21369262506446621</v>
       </c>
       <c r="K21" s="62">
         <f t="shared" si="9"/>
-        <v>0.28533893851812925</v>
+        <v>0.22281493639720967</v>
       </c>
       <c r="L21" s="62">
         <f t="shared" si="9"/>
-        <v>0.39338537387017253</v>
+        <v>0.28265682656826568</v>
       </c>
       <c r="M21" s="62">
         <f t="shared" si="9"/>
-        <v>0.40946843853820597</v>
+        <v>0.29860690490611752</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q21" s="46" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3851,6 +3893,14 @@
       </c>
       <c r="H22" s="10">
         <v>-190112000</v>
+      </c>
+      <c r="P22" s="70">
+        <f>(-1*H98)/P101</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="71">
+        <f>H107/P101</f>
+        <v>2.0131040657784996E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -4101,23 +4151,23 @@
       </c>
       <c r="I30" s="62">
         <f>I28/I3</f>
-        <v>0.24777292576419213</v>
+        <v>0.18775645268034413</v>
       </c>
       <c r="J30" s="62">
         <f t="shared" ref="J30:M30" si="16">J28/J3</f>
-        <v>0.25549543456205615</v>
+        <v>0.19481691593604952</v>
       </c>
       <c r="K30" s="62">
         <f t="shared" si="16"/>
-        <v>0.25930110352075669</v>
+        <v>0.20248256052523594</v>
       </c>
       <c r="L30" s="62">
         <f t="shared" si="16"/>
-        <v>0.2838948233360723</v>
+        <v>0.20398523985239853</v>
       </c>
       <c r="M30" s="62">
         <f t="shared" si="16"/>
-        <v>0.31794019933554818</v>
+        <v>0.2318594791035736</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5528,10 +5578,10 @@
       <c r="H83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O83" s="72" t="s">
+      <c r="O83" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="P83" s="73"/>
+      <c r="P83" s="75"/>
     </row>
     <row r="84" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5558,10 +5608,10 @@
       <c r="H84" s="1">
         <v>-15463000</v>
       </c>
-      <c r="O84" s="74" t="s">
+      <c r="O84" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="P84" s="75"/>
+      <c r="P84" s="77"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5862,10 +5912,10 @@
       <c r="H93" s="1">
         <v>-31418000</v>
       </c>
-      <c r="O93" s="76" t="s">
+      <c r="O93" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="P93" s="77"/>
+      <c r="P93" s="79"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5897,7 +5947,7 @@
       </c>
       <c r="P94" s="56">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5930,7 +5980,7 @@
       </c>
       <c r="P95" s="58" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.97670000000000001</v>
+        <v>0.98229999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5995,7 +6045,7 @@
       </c>
       <c r="P97" s="55">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.2910259000000014E-2</v>
+        <v>8.3175002999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6023,10 +6073,10 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="O98" s="76" t="s">
+      <c r="O98" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="P98" s="77"/>
+      <c r="P98" s="79"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6091,7 +6141,7 @@
       </c>
       <c r="P100" s="53">
         <f>P99/P103</f>
-        <v>2.2164889302871388E-2</v>
+        <v>2.2774323015780015E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6124,7 +6174,7 @@
       </c>
       <c r="P101" s="39" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>34570404720</v>
+        <v>33624342204</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6157,7 +6207,7 @@
       </c>
       <c r="P102" s="53">
         <f>P101/P103</f>
-        <v>0.97783511069712858</v>
+        <v>0.97722567698422003</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,7 +6240,7 @@
       </c>
       <c r="P103" s="57">
         <f>P99+P101</f>
-        <v>35354022720</v>
+        <v>34407960204</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6218,10 +6268,10 @@
       <c r="H104" s="11">
         <v>2456924000</v>
       </c>
-      <c r="O104" s="76" t="s">
+      <c r="O104" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="P104" s="77"/>
+      <c r="P104" s="79"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6257,23 +6307,23 @@
       </c>
       <c r="I105" s="37">
         <f>H105*(1+$P$106)</f>
-        <v>278038395.13268656</v>
+        <v>270757544.77618152</v>
       </c>
       <c r="J105" s="37">
         <f t="shared" ref="J105:M105" si="21">I105*(1+$P$106)</f>
-        <v>370994326.37735885</v>
+        <v>351818648.89292938</v>
       </c>
       <c r="K105" s="37">
         <f t="shared" si="21"/>
-        <v>495027998.33996558</v>
+        <v>457148338.41902566</v>
       </c>
       <c r="L105" s="37">
         <f t="shared" si="21"/>
-        <v>660529559.93514657</v>
+        <v>594012295.75774217</v>
       </c>
       <c r="M105" s="37">
         <f t="shared" si="21"/>
-        <v>881362874.44591236</v>
+        <v>771851449.20718884</v>
       </c>
       <c r="N105" s="28" t="s">
         <v>162</v>
@@ -6283,7 +6333,7 @@
       </c>
       <c r="P105" s="26">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>8.1889062601093437E-2</v>
+        <v>8.2119698976249822E-2</v>
       </c>
       <c r="Q105" s="15"/>
     </row>
@@ -6339,7 +6389,7 @@
       </c>
       <c r="P106" s="30">
         <f>(SUM(I4:M4)/5)</f>
-        <v>0.33432767873772085</v>
+        <v>0.29938631694919549</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6373,7 +6423,7 @@
       <c r="L107" s="28"/>
       <c r="M107" s="68">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>37260237787.065559</v>
+        <v>37109789407.002373</v>
       </c>
       <c r="N107" s="31" t="s">
         <v>142</v>
@@ -6404,7 +6454,7 @@
       </c>
       <c r="M108" s="68">
         <f>M107+M106</f>
-        <v>39328237787.065559</v>
+        <v>39177789407.002373</v>
       </c>
       <c r="N108" s="31" t="s">
         <v>138</v>
@@ -6414,14 +6464,14 @@
       </c>
       <c r="P108" s="35">
         <f>P105</f>
-        <v>8.1889062601093437E-2</v>
+        <v>8.2119698976249822E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="70" t="s">
+      <c r="I109" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="J109" s="71"/>
+      <c r="J109" s="73"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="I110" s="38" t="s">
@@ -6429,7 +6479,7 @@
       </c>
       <c r="J110" s="39">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>29741196664.45533</v>
+        <v>29609573782.82431</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6456,7 +6506,7 @@
       </c>
       <c r="J113" s="39">
         <f>J110+J111-J112</f>
-        <v>31662947664.45533</v>
+        <v>31531324782.82431</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,7 +6524,7 @@
       </c>
       <c r="J115" s="60">
         <f>J113/J114</f>
-        <v>111.51772077187074</v>
+        <v>111.05414157777712</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6483,7 +6533,7 @@
       </c>
       <c r="J116" s="59" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>145.80000000000001</v>
+        <v>141.81</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6492,7 +6542,7 @@
       </c>
       <c r="J117" s="42">
         <f>J115/J116-1</f>
-        <v>-0.2351322306456054</v>
+        <v>-0.21688074481505459</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D710B2-6876-6F4D-84DE-AFFA2259C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84CD55-AF14-9D4A-B04E-679795450356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -799,19 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -850,46 +837,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -919,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -945,110 +892,56 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1056,34 +949,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1136,7 +1061,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CRWD</a:t>
+              <a:t>Crowdstrike</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1175,9 +1100,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.147087857847977E-2"/>
-          <c:y val="0.14371731594775142"/>
+          <c:y val="0.14148579253680246"/>
           <c:w val="0.84732477788746308"/>
-          <c:h val="0.70797295746194988"/>
+          <c:h val="0.72200410818212946"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1489,6 +1414,7 @@
         <c:axId val="662578431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-200000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1522,7 +1448,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1552,8 +1478,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27770542009001098"/>
-          <c:y val="0.89942127132067684"/>
+          <c:x val="0.2790321359083846"/>
+          <c:y val="0.91122058655711513"/>
           <c:w val="0.45248649446953387"/>
           <c:h val="5.9762402148711001E-2"/>
         </c:manualLayout>
@@ -2137,13 +2063,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2215,7 +2141,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2355,11 +2281,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.73</v>
     <v>92.25</v>
-    <v>0.98229999999999995</v>
-    <v>-1.84</v>
-    <v>-1.2808999999999999E-2</v>
-    <v>0.19</v>
-    <v>1.34E-3</v>
+    <v>0.97309999999999997</v>
+    <v>2.88</v>
+    <v>2.0001000000000001E-2</v>
+    <v>-0.15</v>
+    <v>-1.021E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7321</v>
@@ -2367,24 +2293,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>145.1799</v>
+    <v>149.32</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45103.944973483594</v>
+    <v>45107.999950253907</v>
     <v>0</v>
-    <v>141.35</v>
-    <v>33624342204</v>
+    <v>144.87</v>
+    <v>34824110708</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>143.04</v>
-    <v>143.65</v>
-    <v>141.81</v>
-    <v>142</v>
+    <v>145.09</v>
+    <v>143.99</v>
+    <v>146.87</v>
+    <v>146.72</v>
     <v>237108400</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>2185207</v>
-    <v>5068321</v>
+    <v>3092674</v>
+    <v>4785303</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2546,9 +2472,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2968,10 +2894,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3102,13 +3028,13 @@
       <c r="M3" s="24">
         <v>8255000000</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="30" t="s">
         <v>111</v>
       </c>
       <c r="Q3" s="19" t="s">
@@ -3166,15 +3092,15 @@
         <f t="shared" si="0"/>
         <v>0.21845018450184495</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="31">
         <f>(G4+F4+H4)/3</f>
         <v>0.67347075956303415</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="31">
         <f>(G20+F20+H20)/3</f>
         <v>9.301753392992225E-2</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="31">
         <f>(G29+F29+H29)/3</f>
         <v>0.31686467072325802</v>
       </c>
@@ -3254,13 +3180,13 @@
       <c r="H6" s="10">
         <v>1640005000</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="30" t="s">
         <v>115</v>
       </c>
       <c r="Q6" s="19" t="s">
@@ -3292,15 +3218,15 @@
       <c r="H7" s="2">
         <v>0.73170000000000002</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="31">
         <f>H7</f>
         <v>0.73170000000000002</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="31">
         <f>H21</f>
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="31">
         <f>H30</f>
         <v>-8.1799999999999998E-2</v>
       </c>
@@ -3369,7 +3295,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="30" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="19" t="s">
@@ -3407,15 +3333,15 @@
       <c r="H10" s="1">
         <v>317344000</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="31">
         <f>(G9+F9+H9)/3</f>
         <v>0.25757072625991556</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="31">
         <f>(G13+F13+H13)/3</f>
         <v>0.57378810025399529</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="31">
         <f>(G80+F80+H80)/3</f>
         <v>0.20653638510830544</v>
       </c>
@@ -3475,13 +3401,13 @@
       <c r="H12" s="1">
         <v>1221753000</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="30" t="s">
         <v>119</v>
       </c>
       <c r="Q12" s="19" t="s">
@@ -3522,7 +3448,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="N13" s="45">
+      <c r="N13" s="31">
         <f>H28/H72</f>
         <v>-0.12519805061487072</v>
       </c>
@@ -3530,7 +3456,7 @@
         <f>H28/H54</f>
         <v>-3.6455494236592167E-2</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="31">
         <f>(H28-H98)/H73</f>
         <v>-3.6628876095473148E-2</v>
       </c>
@@ -3590,7 +3516,7 @@
       <c r="H15" s="1">
         <v>1830117000</v>
       </c>
-      <c r="N15" s="44" t="s">
+      <c r="N15" s="30" t="s">
         <v>121</v>
       </c>
       <c r="O15" s="19" t="s">
@@ -3599,7 +3525,7 @@
       <c r="P15" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="46" t="s">
+      <c r="Q15" s="32" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3632,17 +3558,17 @@
         <f>(SUM(D35:H35)/5)</f>
         <v>8.101030415292805E-2</v>
       </c>
-      <c r="O16" s="65">
+      <c r="O16" s="39">
         <f>P101/H3</f>
-        <v>15.002588841157291</v>
-      </c>
-      <c r="P16" s="65">
+        <v>15.537904400964468</v>
+      </c>
+      <c r="P16" s="39">
         <f>P101/H25</f>
-        <v>-210.30592498264355</v>
-      </c>
-      <c r="Q16" s="66">
+        <v>-217.80996546224426</v>
+      </c>
+      <c r="Q16" s="40">
         <f>P101/H107</f>
-        <v>49.674530840177106</v>
+        <v>51.446994883977233</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3696,7 +3622,7 @@
       <c r="H18" s="1">
         <v>93810000</v>
       </c>
-      <c r="N18" s="47" t="s">
+      <c r="N18" s="33" t="s">
         <v>156</v>
       </c>
       <c r="O18" s="19" t="s">
@@ -3705,7 +3631,7 @@
       <c r="P18" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="Q18" s="46" t="s">
+      <c r="Q18" s="32" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3734,36 +3660,36 @@
       <c r="H19" s="10">
         <v>-41714000</v>
       </c>
-      <c r="I19" s="61">
-        <v>610500000</v>
-      </c>
-      <c r="J19" s="61">
-        <v>828700000</v>
-      </c>
-      <c r="K19" s="61">
-        <v>1086000000</v>
-      </c>
-      <c r="L19" s="61">
+      <c r="I19" s="35">
+        <v>627000000</v>
+      </c>
+      <c r="J19" s="35">
+        <v>846000000</v>
+      </c>
+      <c r="K19" s="35">
+        <v>1130000000</v>
+      </c>
+      <c r="L19" s="35">
         <v>1915000000</v>
       </c>
-      <c r="M19" s="61">
-        <v>2465000000</v>
-      </c>
-      <c r="N19" s="48">
+      <c r="M19" s="35">
+        <v>2746000000</v>
+      </c>
+      <c r="N19" s="34">
         <f>H40-H56-H61</f>
         <v>1921751000</v>
       </c>
-      <c r="O19" s="65">
+      <c r="O19" s="39">
         <f>P101/I3</f>
-        <v>11.126519590999338</v>
-      </c>
-      <c r="P19" s="65">
+        <v>11.523531008603573</v>
+      </c>
+      <c r="P19" s="39">
         <f>P101/I28</f>
-        <v>59.260384568205851</v>
-      </c>
-      <c r="Q19" s="66">
+        <v>61.374886690165667</v>
+      </c>
+      <c r="Q19" s="40">
         <f>P101/I106</f>
-        <v>56.369391792120702</v>
+        <v>58.380738823134955</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3797,23 +3723,23 @@
       </c>
       <c r="I20" s="16">
         <f t="shared" ref="I20" si="4">(I19/H19)-1</f>
-        <v>-15.635374214891883</v>
+        <v>-16.030924869348418</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" ref="J20" si="5">(J19/I19)-1</f>
-        <v>0.35741195741195741</v>
+        <v>0.34928229665071764</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="6">(K19/J19)-1</f>
-        <v>0.31048630384940279</v>
+        <v>0.3356973995271868</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="7">(L19/K19)-1</f>
-        <v>0.76335174953959495</v>
+        <v>0.69469026548672574</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="8">(M19/L19)-1</f>
-        <v>0.28720626631853796</v>
+        <v>0.43394255874673626</v>
       </c>
       <c r="Q20" s="15"/>
     </row>
@@ -3842,30 +3768,30 @@
       <c r="H21" s="2">
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="36">
         <f>I19/I3</f>
-        <v>0.20201853077432164</v>
-      </c>
-      <c r="J21" s="62">
+        <v>0.20747849106551952</v>
+      </c>
+      <c r="J21" s="36">
         <f t="shared" ref="J21:M21" si="9">J19/J3</f>
-        <v>0.21369262506446621</v>
-      </c>
-      <c r="K21" s="62">
+        <v>0.21815368746776689</v>
+      </c>
+      <c r="K21" s="36">
         <f t="shared" si="9"/>
-        <v>0.22281493639720967</v>
-      </c>
-      <c r="L21" s="62">
+        <v>0.23184242921624948</v>
+      </c>
+      <c r="L21" s="36">
         <f t="shared" si="9"/>
         <v>0.28265682656826568</v>
       </c>
-      <c r="M21" s="62">
+      <c r="M21" s="36">
         <f t="shared" si="9"/>
-        <v>0.29860690490611752</v>
-      </c>
-      <c r="P21" s="47" t="s">
+        <v>0.33264688067837672</v>
+      </c>
+      <c r="P21" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="Q21" s="46" t="s">
+      <c r="Q21" s="32" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3894,13 +3820,13 @@
       <c r="H22" s="10">
         <v>-190112000</v>
       </c>
-      <c r="P22" s="70">
+      <c r="P22" s="44">
         <f>(-1*H98)/P101</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="71">
+      <c r="Q22" s="45">
         <f>H107/P101</f>
-        <v>2.0131040657784996E-2</v>
+        <v>1.9437481280591615E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -4058,19 +3984,19 @@
       <c r="H28" s="11">
         <v>-183245000</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="37">
         <v>567400000</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="37">
         <v>755500000</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="37">
         <v>986900000</v>
       </c>
-      <c r="L28" s="63">
+      <c r="L28" s="37">
         <v>1382000000</v>
       </c>
-      <c r="M28" s="63">
+      <c r="M28" s="37">
         <v>1914000000</v>
       </c>
     </row>
@@ -4149,23 +4075,23 @@
       <c r="H30" s="2">
         <v>-8.1799999999999998E-2</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="36">
         <f>I28/I3</f>
         <v>0.18775645268034413</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="36">
         <f t="shared" ref="J30:M30" si="16">J28/J3</f>
         <v>0.19481691593604952</v>
       </c>
-      <c r="K30" s="62">
+      <c r="K30" s="36">
         <f t="shared" si="16"/>
         <v>0.20248256052523594</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="36">
         <f t="shared" si="16"/>
         <v>0.20398523985239853</v>
       </c>
-      <c r="M30" s="62">
+      <c r="M30" s="36">
         <f t="shared" si="16"/>
         <v>0.2318594791035736</v>
       </c>
@@ -4195,19 +4121,19 @@
       <c r="H31" s="12">
         <v>-0.79</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="38">
         <v>2.39</v>
       </c>
-      <c r="J31" s="64">
+      <c r="J31" s="38">
         <v>3.19</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="38">
         <v>4.16</v>
       </c>
-      <c r="L31" s="64">
+      <c r="L31" s="38">
         <v>5.83</v>
       </c>
-      <c r="M31" s="64">
+      <c r="M31" s="38">
         <v>8.07</v>
       </c>
       <c r="Q31" s="15"/>
@@ -5280,7 +5206,7 @@
       <c r="H72" s="10">
         <v>1463641000</v>
       </c>
-      <c r="N72" s="27"/>
+      <c r="N72" s="25"/>
     </row>
     <row r="73" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
@@ -5578,10 +5504,10 @@
       <c r="H83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O83" s="74" t="s">
+      <c r="O83" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="P83" s="75"/>
+      <c r="P83" s="69"/>
     </row>
     <row r="84" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5608,10 +5534,10 @@
       <c r="H84" s="1">
         <v>-15463000</v>
       </c>
-      <c r="O84" s="76" t="s">
+      <c r="O84" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="P84" s="77"/>
+      <c r="P84" s="70"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5638,10 +5564,10 @@
       <c r="H85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O85" s="50" t="s">
+      <c r="O85" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="P85" s="51">
+      <c r="P85" s="47">
         <f>H17</f>
         <v>25319000</v>
       </c>
@@ -5671,10 +5597,10 @@
       <c r="H86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O86" s="50" t="s">
+      <c r="O86" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="P86" s="51">
+      <c r="P86" s="47">
         <f>H56</f>
         <v>13046000</v>
       </c>
@@ -5704,10 +5630,10 @@
       <c r="H87" s="10">
         <v>941007000</v>
       </c>
-      <c r="O87" s="50" t="s">
+      <c r="O87" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="P87" s="51">
+      <c r="P87" s="47">
         <f>H61</f>
         <v>770572000</v>
       </c>
@@ -5737,10 +5663,10 @@
       <c r="H88" s="1">
         <v>-235019000</v>
       </c>
-      <c r="O88" s="52" t="s">
+      <c r="O88" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="P88" s="53">
+      <c r="P88" s="49">
         <f>P85/(P86+P87)</f>
         <v>3.231038592783729E-2</v>
       </c>
@@ -5779,10 +5705,10 @@
       </c>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
-      <c r="O89" s="50" t="s">
+      <c r="O89" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="P89" s="51">
+      <c r="P89" s="47">
         <f>H27</f>
         <v>22402000</v>
       </c>
@@ -5813,10 +5739,10 @@
       <c r="H90" s="1">
         <v>-18349000</v>
       </c>
-      <c r="O90" s="50" t="s">
+      <c r="O90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="P90" s="51">
+      <c r="P90" s="47">
         <f>H25</f>
         <v>-159883000</v>
       </c>
@@ -5846,10 +5772,10 @@
       <c r="H91" s="1">
         <v>-271872000</v>
       </c>
-      <c r="O91" s="52" t="s">
+      <c r="O91" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="P91" s="53">
+      <c r="P91" s="49">
         <f>P89/P90</f>
         <v>-0.14011495906381541</v>
       </c>
@@ -5879,10 +5805,10 @@
       <c r="H92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O92" s="54" t="s">
+      <c r="O92" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="P92" s="55">
+      <c r="P92" s="49">
         <f>P88*(1-P91)</f>
         <v>3.6837554329452286E-2</v>
       </c>
@@ -5912,10 +5838,10 @@
       <c r="H93" s="1">
         <v>-31418000</v>
       </c>
-      <c r="O93" s="78" t="s">
+      <c r="O93" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="P93" s="79"/>
+      <c r="P93" s="71"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5942,12 +5868,12 @@
       <c r="H94" s="10">
         <v>-556658000</v>
       </c>
-      <c r="O94" s="50" t="s">
+      <c r="O94" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="P94" s="56">
+      <c r="P94" s="50">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5975,12 +5901,12 @@
       <c r="H95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O95" s="50" t="s">
+      <c r="O95" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="P95" s="58" cm="1">
+      <c r="P95" s="51" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.98229999999999995</v>
+        <v>0.97309999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6008,10 +5934,10 @@
       <c r="H96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O96" s="50" t="s">
+      <c r="O96" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="P96" s="56">
+      <c r="P96" s="50">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6040,43 +5966,43 @@
       <c r="H97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O97" s="54" t="s">
+      <c r="O97" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="P97" s="55">
+      <c r="P97" s="49">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.3175002999999997E-2</v>
+        <v>8.2777126000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B98" s="36">
+      <c r="B98" s="28">
         <v>0</v>
       </c>
-      <c r="C98" s="36">
+      <c r="C98" s="28">
         <v>0</v>
       </c>
-      <c r="D98" s="36">
+      <c r="D98" s="28">
         <v>0</v>
       </c>
-      <c r="E98" s="36">
+      <c r="E98" s="28">
         <v>0</v>
       </c>
-      <c r="F98" s="36">
+      <c r="F98" s="28">
         <v>0</v>
       </c>
-      <c r="G98" s="36">
+      <c r="G98" s="28">
         <v>0</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="O98" s="78" t="s">
+      <c r="O98" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="P98" s="79"/>
+      <c r="P98" s="71"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6103,10 +6029,10 @@
       <c r="H99" s="1">
         <v>77437000</v>
       </c>
-      <c r="O99" s="50" t="s">
+      <c r="O99" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="P99" s="51">
+      <c r="P99" s="47">
         <f>P86+P87</f>
         <v>783618000</v>
       </c>
@@ -6136,12 +6062,12 @@
       <c r="H100" s="10">
         <v>77437000</v>
       </c>
-      <c r="O100" s="52" t="s">
+      <c r="O100" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="P100" s="53">
+      <c r="P100" s="49">
         <f>P99/P103</f>
-        <v>2.2774323015780015E-2</v>
+        <v>2.2006963893317473E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6169,12 +6095,12 @@
       <c r="H101" s="1">
         <v>-1495000</v>
       </c>
-      <c r="O101" s="50" t="s">
+      <c r="O101" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="P101" s="39" cm="1">
+      <c r="P101" s="52" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>33624342204</v>
+        <v>34824110708</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6202,12 +6128,12 @@
       <c r="H102" s="10">
         <v>460291000</v>
       </c>
-      <c r="O102" s="52" t="s">
+      <c r="O102" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="P102" s="53">
+      <c r="P102" s="49">
         <f>P101/P103</f>
-        <v>0.97722567698422003</v>
+        <v>0.97799303610668253</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6235,12 +6161,12 @@
       <c r="H103" s="1">
         <v>1996633000</v>
       </c>
-      <c r="O103" s="54" t="s">
+      <c r="O103" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="P103" s="57">
+      <c r="P103" s="53">
         <f>P99+P101</f>
-        <v>34407960204</v>
+        <v>35607728708</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6268,10 +6194,10 @@
       <c r="H104" s="11">
         <v>2456924000</v>
       </c>
-      <c r="O104" s="78" t="s">
+      <c r="O104" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="P104" s="79"/>
+      <c r="P104" s="71"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6305,35 +6231,35 @@
         <f>(H22*(1-0.2))+H77+H88+H81</f>
         <v>208373400</v>
       </c>
-      <c r="I105" s="37">
+      <c r="I105" s="29">
         <f>H105*(1+$P$106)</f>
         <v>270757544.77618152</v>
       </c>
-      <c r="J105" s="37">
+      <c r="J105" s="29">
         <f t="shared" ref="J105:M105" si="21">I105*(1+$P$106)</f>
         <v>351818648.89292938</v>
       </c>
-      <c r="K105" s="37">
+      <c r="K105" s="29">
         <f t="shared" si="21"/>
         <v>457148338.41902566</v>
       </c>
-      <c r="L105" s="37">
+      <c r="L105" s="29">
         <f t="shared" si="21"/>
         <v>594012295.75774217</v>
       </c>
-      <c r="M105" s="37">
+      <c r="M105" s="29">
         <f t="shared" si="21"/>
         <v>771851449.20718884</v>
       </c>
-      <c r="N105" s="28" t="s">
+      <c r="N105" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="O105" s="25" t="s">
+      <c r="O105" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="P105" s="26">
+      <c r="P105" s="55">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>8.2119698976249822E-2</v>
+        <v>8.176613550497179E-2</v>
       </c>
       <c r="Q105" s="15"/>
     </row>
@@ -6366,34 +6292,34 @@
         <f t="shared" si="22"/>
         <v>0.53221209891913301</v>
       </c>
-      <c r="I106" s="67">
+      <c r="I106" s="41">
         <v>596500000</v>
       </c>
-      <c r="J106" s="67">
+      <c r="J106" s="41">
         <v>725800000</v>
       </c>
-      <c r="K106" s="67">
+      <c r="K106" s="41">
         <v>903100000</v>
       </c>
-      <c r="L106" s="67">
+      <c r="L106" s="41">
         <v>1813000000</v>
       </c>
-      <c r="M106" s="67">
+      <c r="M106" s="41">
         <v>2068000000</v>
       </c>
-      <c r="N106" s="28" t="s">
+      <c r="N106" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="O106" s="29" t="s">
+      <c r="O106" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="P106" s="30">
+      <c r="P106" s="57">
         <f>(SUM(I4:M4)/5)</f>
         <v>0.29938631694919549</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="69" t="s">
+      <c r="A107" s="43" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1">
@@ -6417,139 +6343,139 @@
       <c r="H107" s="1">
         <v>676893000</v>
       </c>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="68">
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="42">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>37109789407.002373</v>
-      </c>
-      <c r="N107" s="31" t="s">
+        <v>37340924851.478546</v>
+      </c>
+      <c r="N107" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="O107" s="32" t="s">
+      <c r="O107" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="P107" s="33">
+      <c r="P107" s="59">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="I108" s="68">
+      <c r="I108" s="42">
         <f t="shared" ref="I108:L108" si="23">I107+I106</f>
         <v>596500000</v>
       </c>
-      <c r="J108" s="68">
+      <c r="J108" s="42">
         <f t="shared" si="23"/>
         <v>725800000</v>
       </c>
-      <c r="K108" s="68">
+      <c r="K108" s="42">
         <f t="shared" si="23"/>
         <v>903100000</v>
       </c>
-      <c r="L108" s="68">
+      <c r="L108" s="42">
         <f t="shared" si="23"/>
         <v>1813000000</v>
       </c>
-      <c r="M108" s="68">
+      <c r="M108" s="42">
         <f>M107+M106</f>
-        <v>39177789407.002373</v>
-      </c>
-      <c r="N108" s="31" t="s">
+        <v>39408924851.478546</v>
+      </c>
+      <c r="N108" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="O108" s="34" t="s">
+      <c r="O108" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="P108" s="35">
+      <c r="P108" s="57">
         <f>P105</f>
-        <v>8.2119698976249822E-2</v>
+        <v>8.176613550497179E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="72" t="s">
+      <c r="I109" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="J109" s="73"/>
+      <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="I110" s="38" t="s">
+      <c r="I110" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="J110" s="39">
+      <c r="J110" s="52">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>29609573782.82431</v>
+        <v>29811791500.546043</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="I111" s="38" t="s">
+      <c r="I111" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="J111" s="39">
+      <c r="J111" s="52">
         <f>H40</f>
         <v>2705369000</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="I112" s="38" t="s">
+      <c r="I112" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="J112" s="39">
+      <c r="J112" s="52">
         <f>P99</f>
         <v>783618000</v>
       </c>
     </row>
     <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I113" s="38" t="s">
+      <c r="I113" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="J113" s="39">
+      <c r="J113" s="52">
         <f>J110+J111-J112</f>
-        <v>31531324782.82431</v>
+        <v>31733542500.546043</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I114" s="38" t="s">
+      <c r="I114" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="J114" s="49">
+      <c r="J114" s="61">
         <f>G34*(1+(5*0.05))</f>
         <v>283927500</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I115" s="40" t="s">
+      <c r="I115" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="J115" s="60">
+      <c r="J115" s="63">
         <f>J113/J114</f>
-        <v>111.05414157777712</v>
+        <v>111.76635761081981</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I116" s="38" t="s">
+      <c r="I116" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="J116" s="59" cm="1">
+      <c r="J116" s="64" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>141.81</v>
+        <v>146.87</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I117" s="41" t="s">
+      <c r="I117" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="J117" s="42">
+      <c r="J117" s="65">
         <f>J115/J116-1</f>
-        <v>-0.21688074481505459</v>
+        <v>-0.23901165921685974</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I118" s="41" t="s">
+      <c r="I118" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="J118" s="43" t="str">
+      <c r="J118" s="66" t="str">
         <f>IF(J115&gt;J116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84CD55-AF14-9D4A-B04E-679795450356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140FB58A-E547-CC4A-85E9-921D26F974F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,7 +1050,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1066,6 +1066,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41004651162790695"/>
+          <c:y val="2.7283065022012637E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1079,7 +1087,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1099,10 +1107,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.147087857847977E-2"/>
-          <c:y val="0.14148579253680246"/>
-          <c:w val="0.84732477788746308"/>
-          <c:h val="0.72200410818212946"/>
+          <c:x val="8.6817275747508305E-2"/>
+          <c:y val="0.14943552937739235"/>
+          <c:w val="0.85603986710963442"/>
+          <c:h val="0.69635380812390857"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1158,10 +1166,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$G$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>52745000</c:v>
                 </c:pt>
@@ -1180,12 +1188,15 @@
                 <c:pt idx="5">
                   <c:v>1451594000</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2241236000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7650-5345-A780-6CBEB9443200}"/>
+              <c16:uniqueId val="{00000000-63E9-F342-A77F-A615BA693BF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1194,11 +1205,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1238,34 +1249,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$G$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-87617000</c:v>
+                  <c:v>-91340000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-125174000</c:v>
+                  <c:v>-135490000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-122884000</c:v>
+                  <c:v>-140077000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-115827000</c:v>
+                  <c:v>-141779000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-46167000</c:v>
+                  <c:v>-92629000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-116444000</c:v>
+                  <c:v>-232378000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-183245000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7650-5345-A780-6CBEB9443200}"/>
+              <c16:uniqueId val="{00000001-63E9-F342-A77F-A615BA693BF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1274,11 +1288,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$107</c:f>
+              <c:f>'Sheet 1'!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Levered FCF</c:v>
+                  <c:v>Unlevered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1318,34 +1332,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$G$107</c:f>
+              <c:f>'Sheet 1'!$B$105:$H$105</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-64645000</c:v>
+                  <c:v>-46934800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-88521000</c:v>
+                  <c:v>-77858000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-65613000</c:v>
+                  <c:v>-80644200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12456000</c:v>
+                  <c:v>-76066000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>292723000</c:v>
+                  <c:v>98931800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>441775000</c:v>
+                  <c:v>164351600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208373400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7650-5345-A780-6CBEB9443200}"/>
+              <c16:uniqueId val="{00000002-63E9-F342-A77F-A615BA693BF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1359,11 +1376,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="662522159"/>
-        <c:axId val="662578431"/>
+        <c:axId val="1882300799"/>
+        <c:axId val="1882309135"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="662522159"/>
+        <c:axId val="1882300799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662578431"/>
+        <c:crossAx val="1882309135"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1411,10 +1428,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662578431"/>
+        <c:axId val="1882309135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-200000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1460,7 +1476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662522159"/>
+        <c:crossAx val="1882300799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1478,10 +1494,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2790321359083846"/>
-          <c:y val="0.91122058655711513"/>
-          <c:w val="0.45248649446953387"/>
-          <c:h val="5.9762402148711001E-2"/>
+          <c:x val="0.33431595469171005"/>
+          <c:y val="0.89541945265827294"/>
+          <c:w val="0.33402579328746695"/>
+          <c:h val="6.2140223974151983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2061,22 +2077,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABD0EAE-ED45-31EC-6BD1-4EC35019140A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0822EE1-C3A6-9008-87E5-781DBD25613F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2122,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2120,10 +2135,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2137,14 +2154,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2154,6 +2171,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2281,11 +2299,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.73</v>
     <v>92.25</v>
-    <v>0.97309999999999997</v>
-    <v>2.88</v>
-    <v>2.0001000000000001E-2</v>
-    <v>-0.15</v>
-    <v>-1.021E-3</v>
+    <v>0.95679999999999998</v>
+    <v>0.44</v>
+    <v>3.0639999999999999E-3</v>
+    <v>0.55000000000000004</v>
+    <v>3.8179999999999998E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7321</v>
@@ -2293,24 +2311,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>149.32</v>
+    <v>146.79990000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.999950253907</v>
+    <v>45114.999377071093</v>
     <v>0</v>
-    <v>144.87</v>
-    <v>34824110708</v>
+    <v>143.47999999999999</v>
+    <v>34155460000</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>145.09</v>
-    <v>143.99</v>
-    <v>146.87</v>
-    <v>146.72</v>
+    <v>143.51</v>
+    <v>143.61000000000001</v>
+    <v>144.05000000000001</v>
+    <v>144.6</v>
     <v>237108400</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>3092674</v>
-    <v>4785303</v>
+    <v>2285033</v>
+    <v>4411497</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2894,10 +2912,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
+      <selection pane="bottomRight" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3560,15 +3578,15 @@
       </c>
       <c r="O16" s="39">
         <f>P101/H3</f>
-        <v>15.537904400964468</v>
+        <v>15.239564240445898</v>
       </c>
       <c r="P16" s="39">
         <f>P101/H25</f>
-        <v>-217.80996546224426</v>
+        <v>-213.62784035826198</v>
       </c>
       <c r="Q16" s="40">
         <f>P101/H107</f>
-        <v>51.446994883977233</v>
+        <v>50.459171538189935</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3681,15 +3699,15 @@
       </c>
       <c r="O19" s="39">
         <f>P101/I3</f>
-        <v>11.523531008603573</v>
+        <v>11.302270019854401</v>
       </c>
       <c r="P19" s="39">
         <f>P101/I28</f>
-        <v>61.374886690165667</v>
+        <v>60.196439901304196</v>
       </c>
       <c r="Q19" s="40">
         <f>P101/I106</f>
-        <v>58.380738823134955</v>
+        <v>57.259782062028499</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3826,7 +3844,7 @@
       </c>
       <c r="Q22" s="45">
         <f>H107/P101</f>
-        <v>1.9437481280591615E-2</v>
+        <v>1.9818002743924399E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5873,7 +5891,7 @@
       </c>
       <c r="P94" s="50">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5906,7 +5924,7 @@
       </c>
       <c r="P95" s="51" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.97309999999999997</v>
+        <v>0.95679999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5971,7 +5989,7 @@
       </c>
       <c r="P97" s="49">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.2777126000000006E-2</v>
+        <v>8.2116912000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6067,7 +6085,7 @@
       </c>
       <c r="P100" s="49">
         <f>P99/P103</f>
-        <v>2.2006963893317473E-2</v>
+        <v>2.2428124749027434E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6100,7 +6118,7 @@
       </c>
       <c r="P101" s="52" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>34824110708</v>
+        <v>34155460000</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6133,7 +6151,7 @@
       </c>
       <c r="P102" s="49">
         <f>P101/P103</f>
-        <v>0.97799303610668253</v>
+        <v>0.97757187525097256</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6166,7 +6184,7 @@
       </c>
       <c r="P103" s="53">
         <f>P99+P101</f>
-        <v>35607728708</v>
+        <v>34939078000</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6259,7 +6277,7 @@
       </c>
       <c r="P105" s="55">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>8.176613550497179E-2</v>
+        <v>8.1101380917609128E-2</v>
       </c>
       <c r="Q105" s="15"/>
     </row>
@@ -6349,7 +6367,7 @@
       <c r="L107" s="26"/>
       <c r="M107" s="42">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>37340924851.478546</v>
+        <v>37783383676.651482</v>
       </c>
       <c r="N107" s="27" t="s">
         <v>142</v>
@@ -6380,7 +6398,7 @@
       </c>
       <c r="M108" s="42">
         <f>M107+M106</f>
-        <v>39408924851.478546</v>
+        <v>39851383676.651482</v>
       </c>
       <c r="N108" s="27" t="s">
         <v>138</v>
@@ -6390,7 +6408,7 @@
       </c>
       <c r="P108" s="57">
         <f>P105</f>
-        <v>8.176613550497179E-2</v>
+        <v>8.1101380917609128E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6405,7 +6423,7 @@
       </c>
       <c r="J110" s="52">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>29811791500.546043</v>
+        <v>30198958072.98703</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6432,7 +6450,7 @@
       </c>
       <c r="J113" s="52">
         <f>J110+J111-J112</f>
-        <v>31733542500.546043</v>
+        <v>32120709072.98703</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6450,7 +6468,7 @@
       </c>
       <c r="J115" s="63">
         <f>J113/J114</f>
-        <v>111.76635761081981</v>
+        <v>113.12996829467744</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6459,7 +6477,7 @@
       </c>
       <c r="J116" s="64" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>146.87</v>
+        <v>144.05000000000001</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6468,7 +6486,7 @@
       </c>
       <c r="J117" s="65">
         <f>J115/J116-1</f>
-        <v>-0.23901165921685974</v>
+        <v>-0.21464791187311749</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140FB58A-E547-CC4A-85E9-921D26F974F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA0167A-7554-B041-91A2-0A80DB270473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2120,8 +2120,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2130,21 +2129,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2154,24 +2154,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2300,10 +2288,8 @@
     <v>205.73</v>
     <v>92.25</v>
     <v>0.95679999999999998</v>
-    <v>0.44</v>
-    <v>3.0639999999999999E-3</v>
-    <v>0.55000000000000004</v>
-    <v>3.8179999999999998E-3</v>
+    <v>5.9</v>
+    <v>4.0957999999999994E-2</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7321</v>
@@ -2311,24 +2297,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>146.79990000000001</v>
+    <v>149.97999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.999377071093</v>
+    <v>45117.999950115627</v>
     <v>0</v>
-    <v>143.47999999999999</v>
-    <v>34155460000</v>
+    <v>143.5</v>
+    <v>35554404580</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>143.51</v>
-    <v>143.61000000000001</v>
+    <v>143.80000000000001</v>
     <v>144.05000000000001</v>
-    <v>144.6</v>
+    <v>149.94999999999999</v>
     <v>237108400</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>2285033</v>
-    <v>4411497</v>
+    <v>467</v>
+    <v>4091793</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2360,8 +2345,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2381,7 +2364,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2398,7 +2380,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2409,16 +2391,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2482,19 +2461,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2538,9 +2511,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2548,9 +2518,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2912,7 +2879,7 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K98" sqref="K98"/>
@@ -3035,7 +3002,7 @@
         <v>3022000000</v>
       </c>
       <c r="J3" s="24">
-        <v>3878000000</v>
+        <v>3877000000</v>
       </c>
       <c r="K3" s="24">
         <v>4874000000</v>
@@ -3096,11 +3063,11 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28325612177365977</v>
+        <v>0.28292521508934487</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25683341928829284</v>
+        <v>0.25715759607944277</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
@@ -3578,15 +3545,15 @@
       </c>
       <c r="O16" s="39">
         <f>P101/H3</f>
-        <v>15.239564240445898</v>
+        <v>15.863748654760141</v>
       </c>
       <c r="P16" s="39">
         <f>P101/H25</f>
-        <v>-213.62784035826198</v>
+        <v>-222.37764227591427</v>
       </c>
       <c r="Q16" s="40">
         <f>P101/H107</f>
-        <v>50.459171538189935</v>
+        <v>52.525886041072958</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3682,10 +3649,10 @@
         <v>627000000</v>
       </c>
       <c r="J19" s="35">
-        <v>846000000</v>
+        <v>850700000</v>
       </c>
       <c r="K19" s="35">
-        <v>1130000000</v>
+        <v>1133000000</v>
       </c>
       <c r="L19" s="35">
         <v>1915000000</v>
@@ -3699,15 +3666,15 @@
       </c>
       <c r="O19" s="39">
         <f>P101/I3</f>
-        <v>11.302270019854401</v>
+        <v>11.765190132362674</v>
       </c>
       <c r="P19" s="39">
         <f>P101/I28</f>
-        <v>60.196439901304196</v>
+        <v>61.50217017816987</v>
       </c>
       <c r="Q19" s="40">
         <f>P101/I106</f>
-        <v>57.259782062028499</v>
+        <v>59.15874306156406</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3745,15 +3712,15 @@
       </c>
       <c r="J20" s="16">
         <f t="shared" ref="J20" si="5">(J19/I19)-1</f>
-        <v>0.34928229665071764</v>
+        <v>0.35677830940988842</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="6">(K19/J19)-1</f>
-        <v>0.3356973995271868</v>
+        <v>0.33184436346538138</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="7">(L19/K19)-1</f>
-        <v>0.69469026548672574</v>
+        <v>0.69020300088261255</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="8">(M19/L19)-1</f>
@@ -3792,11 +3759,11 @@
       </c>
       <c r="J21" s="36">
         <f t="shared" ref="J21:M21" si="9">J19/J3</f>
-        <v>0.21815368746776689</v>
+        <v>0.21942223368583957</v>
       </c>
       <c r="K21" s="36">
         <f t="shared" si="9"/>
-        <v>0.23184242921624948</v>
+        <v>0.23245794009027493</v>
       </c>
       <c r="L21" s="36">
         <f t="shared" si="9"/>
@@ -3844,7 +3811,7 @@
       </c>
       <c r="Q22" s="45">
         <f>H107/P101</f>
-        <v>1.9818002743924399E-2</v>
+        <v>1.9038231915174994E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -4003,19 +3970,19 @@
         <v>-183245000</v>
       </c>
       <c r="I28" s="37">
-        <v>567400000</v>
+        <v>578100000</v>
       </c>
       <c r="J28" s="37">
-        <v>755500000</v>
+        <v>760000000</v>
       </c>
       <c r="K28" s="37">
-        <v>986900000</v>
+        <v>1032000000</v>
       </c>
       <c r="L28" s="37">
-        <v>1382000000</v>
+        <v>1337000000</v>
       </c>
       <c r="M28" s="37">
-        <v>1914000000</v>
+        <v>1832000000</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4049,23 +4016,23 @@
       </c>
       <c r="I29" s="16">
         <f t="shared" ref="I29" si="11">(I28/H28)-1</f>
-        <v>-4.0964009932058172</v>
+        <v>-4.1547927637861877</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" ref="J29" si="12">(J28/I28)-1</f>
-        <v>0.3315121607331688</v>
+        <v>0.31465144438678427</v>
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="13">(K28/J28)-1</f>
-        <v>0.30628722700198541</v>
+        <v>0.35789473684210527</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29" si="14">(L28/K28)-1</f>
-        <v>0.40034451312189678</v>
+        <v>0.29554263565891481</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" ref="M29" si="15">(M28/L28)-1</f>
-        <v>0.38494934876989872</v>
+        <v>0.37023186237845929</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -4095,23 +4062,23 @@
       </c>
       <c r="I30" s="36">
         <f>I28/I3</f>
-        <v>0.18775645268034413</v>
+        <v>0.19129715420251489</v>
       </c>
       <c r="J30" s="36">
         <f t="shared" ref="J30:M30" si="16">J28/J3</f>
-        <v>0.19481691593604952</v>
+        <v>0.19602785659014701</v>
       </c>
       <c r="K30" s="36">
         <f t="shared" si="16"/>
-        <v>0.20248256052523594</v>
+        <v>0.21173574066475173</v>
       </c>
       <c r="L30" s="36">
         <f t="shared" si="16"/>
-        <v>0.20398523985239853</v>
+        <v>0.19734317343173433</v>
       </c>
       <c r="M30" s="36">
         <f t="shared" si="16"/>
-        <v>0.2318594791035736</v>
+        <v>0.22192610539067231</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -4140,19 +4107,19 @@
         <v>-0.79</v>
       </c>
       <c r="I31" s="38">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="J31" s="38">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="K31" s="38">
-        <v>4.16</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L31" s="38">
-        <v>5.83</v>
+        <v>5.64</v>
       </c>
       <c r="M31" s="38">
-        <v>8.07</v>
+        <v>7.73</v>
       </c>
       <c r="Q31" s="15"/>
     </row>
@@ -5891,7 +5858,7 @@
       </c>
       <c r="P94" s="50">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5989,7 +5956,7 @@
       </c>
       <c r="P97" s="49">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.2116912000000014E-2</v>
+        <v>8.2119936000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6085,7 +6052,7 @@
       </c>
       <c r="P100" s="49">
         <f>P99/P103</f>
-        <v>2.2428124749027434E-2</v>
+        <v>2.156468471213108E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6118,7 +6085,7 @@
       </c>
       <c r="P101" s="52" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>34155460000</v>
+        <v>35554404580</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6151,7 +6118,7 @@
       </c>
       <c r="P102" s="49">
         <f>P101/P103</f>
-        <v>0.97757187525097256</v>
+        <v>0.97843531528786887</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,7 +6151,7 @@
       </c>
       <c r="P103" s="53">
         <f>P99+P101</f>
-        <v>34939078000</v>
+        <v>36338022580</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6251,23 +6218,23 @@
       </c>
       <c r="I105" s="29">
         <f>H105*(1+$P$106)</f>
-        <v>270757544.77618152</v>
+        <v>270757264.31003743</v>
       </c>
       <c r="J105" s="29">
         <f t="shared" ref="J105:M105" si="21">I105*(1+$P$106)</f>
-        <v>351818648.89292938</v>
+        <v>351817920.02556694</v>
       </c>
       <c r="K105" s="29">
         <f t="shared" si="21"/>
-        <v>457148338.41902566</v>
+        <v>457146917.79934496</v>
       </c>
       <c r="L105" s="29">
         <f t="shared" si="21"/>
-        <v>594012295.75774217</v>
+        <v>594009834.51398396</v>
       </c>
       <c r="M105" s="29">
         <f t="shared" si="21"/>
-        <v>771851449.20718884</v>
+        <v>771847451.57618165</v>
       </c>
       <c r="N105" s="26" t="s">
         <v>162</v>
@@ -6277,7 +6244,7 @@
       </c>
       <c r="P105" s="55">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>8.1101380917609128E-2</v>
+        <v>8.1143435716260259E-2</v>
       </c>
       <c r="Q105" s="15"/>
     </row>
@@ -6311,13 +6278,13 @@
         <v>0.53221209891913301</v>
       </c>
       <c r="I106" s="41">
-        <v>596500000</v>
+        <v>601000000</v>
       </c>
       <c r="J106" s="41">
-        <v>725800000</v>
+        <v>730600000</v>
       </c>
       <c r="K106" s="41">
-        <v>903100000</v>
+        <v>924200000</v>
       </c>
       <c r="L106" s="41">
         <v>1813000000</v>
@@ -6333,7 +6300,7 @@
       </c>
       <c r="P106" s="57">
         <f>(SUM(I4:M4)/5)</f>
-        <v>0.29938631694919549</v>
+        <v>0.29938497097056249</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6367,7 +6334,7 @@
       <c r="L107" s="26"/>
       <c r="M107" s="42">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>37783383676.651482</v>
+        <v>37755081657.499855</v>
       </c>
       <c r="N107" s="27" t="s">
         <v>142</v>
@@ -6382,15 +6349,15 @@
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="I108" s="42">
         <f t="shared" ref="I108:L108" si="23">I107+I106</f>
-        <v>596500000</v>
+        <v>601000000</v>
       </c>
       <c r="J108" s="42">
         <f t="shared" si="23"/>
-        <v>725800000</v>
+        <v>730600000</v>
       </c>
       <c r="K108" s="42">
         <f t="shared" si="23"/>
-        <v>903100000</v>
+        <v>924200000</v>
       </c>
       <c r="L108" s="42">
         <f t="shared" si="23"/>
@@ -6398,7 +6365,7 @@
       </c>
       <c r="M108" s="42">
         <f>M107+M106</f>
-        <v>39851383676.651482</v>
+        <v>39823081657.499855</v>
       </c>
       <c r="N108" s="27" t="s">
         <v>138</v>
@@ -6408,7 +6375,7 @@
       </c>
       <c r="P108" s="57">
         <f>P105</f>
-        <v>8.1101380917609128E-2</v>
+        <v>8.1143435716260259E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6423,7 +6390,7 @@
       </c>
       <c r="J110" s="52">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>30198958072.98703</v>
+        <v>30199155901.683338</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6450,7 +6417,7 @@
       </c>
       <c r="J113" s="52">
         <f>J110+J111-J112</f>
-        <v>32120709072.98703</v>
+        <v>32120906901.683338</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6468,7 +6435,7 @@
       </c>
       <c r="J115" s="63">
         <f>J113/J114</f>
-        <v>113.12996829467744</v>
+        <v>113.13066505246353</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6477,7 +6444,7 @@
       </c>
       <c r="J116" s="64" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>144.05000000000001</v>
+        <v>149.94999999999999</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6486,7 +6453,7 @@
       </c>
       <c r="J117" s="65">
         <f>J115/J116-1</f>
-        <v>-0.21464791187311749</v>
+        <v>-0.24554408101058001</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA0167A-7554-B041-91A2-0A80DB270473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C192F69-2B0B-7E4D-B8DB-989E2E0A160D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -855,6 +855,15 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1008,9 +1017,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2130,6 +2137,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2141,7 +2149,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2160,6 +2168,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2287,9 +2296,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.73</v>
     <v>92.25</v>
-    <v>0.95679999999999998</v>
-    <v>5.9</v>
-    <v>4.0957999999999994E-2</v>
+    <v>0.9516</v>
+    <v>1.2</v>
+    <v>8.0140000000000003E-3</v>
+    <v>-0.44</v>
+    <v>-2.9149999999999996E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7321</v>
@@ -2297,23 +2308,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>149.97999999999999</v>
+    <v>153.41</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.999950115627</v>
+    <v>45132.974640010936</v>
     <v>0</v>
-    <v>143.5</v>
-    <v>35554404580</v>
+    <v>150.54</v>
+    <v>35789141896</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>143.80000000000001</v>
-    <v>144.05000000000001</v>
-    <v>149.94999999999999</v>
+    <v>150.62</v>
+    <v>149.74</v>
+    <v>150.94</v>
+    <v>150.5</v>
     <v>237108400</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>467</v>
-    <v>4091793</v>
+    <v>2245841</v>
+    <v>3535415</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2345,6 +2357,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2364,6 +2378,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2380,7 +2395,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2391,13 +2406,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2461,13 +2479,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2511,6 +2535,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2518,6 +2545,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2879,10 +2909,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K98" sqref="K98"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3545,15 +3575,15 @@
       </c>
       <c r="O16" s="39">
         <f>P101/H3</f>
-        <v>15.863748654760141</v>
+        <v>15.968484307765893</v>
       </c>
       <c r="P16" s="39">
         <f>P101/H25</f>
-        <v>-222.37764227591427</v>
+        <v>-223.84582410887961</v>
       </c>
       <c r="Q16" s="40">
         <f>P101/H107</f>
-        <v>52.525886041072958</v>
+        <v>52.872672484425159</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3666,15 +3696,15 @@
       </c>
       <c r="O19" s="39">
         <f>P101/I3</f>
-        <v>11.765190132362674</v>
+        <v>11.842866279285241</v>
       </c>
       <c r="P19" s="39">
         <f>P101/I28</f>
-        <v>61.50217017816987</v>
+        <v>61.908219851236808</v>
       </c>
       <c r="Q19" s="40">
         <f>P101/I106</f>
-        <v>59.15874306156406</v>
+        <v>59.54932095840266</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3753,23 +3783,23 @@
       <c r="H21" s="2">
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="71">
         <f>I19/I3</f>
         <v>0.20747849106551952</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="71">
         <f t="shared" ref="J21:M21" si="9">J19/J3</f>
         <v>0.21942223368583957</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="71">
         <f t="shared" si="9"/>
         <v>0.23245794009027493</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="71">
         <f t="shared" si="9"/>
         <v>0.28265682656826568</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="71">
         <f t="shared" si="9"/>
         <v>0.33264688067837672</v>
       </c>
@@ -3811,7 +3841,7 @@
       </c>
       <c r="Q22" s="45">
         <f>H107/P101</f>
-        <v>1.9038231915174994E-2</v>
+        <v>1.8913362102030543E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5823,10 +5853,10 @@
       <c r="H93" s="1">
         <v>-31418000</v>
       </c>
-      <c r="O93" s="71" t="s">
+      <c r="O93" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="P93" s="71"/>
+      <c r="P93" s="70"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5858,7 +5888,7 @@
       </c>
       <c r="P94" s="50">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5891,7 +5921,7 @@
       </c>
       <c r="P95" s="51" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.95679999999999998</v>
+        <v>0.9516</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5956,7 +5986,7 @@
       </c>
       <c r="P97" s="49">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.2119936000000004E-2</v>
+        <v>8.1827808000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,10 +6014,10 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="O98" s="71" t="s">
+      <c r="O98" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="P98" s="71"/>
+      <c r="P98" s="70"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6052,7 +6082,7 @@
       </c>
       <c r="P100" s="49">
         <f>P99/P103</f>
-        <v>2.156468471213108E-2</v>
+        <v>2.1426274698117739E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6085,7 +6115,7 @@
       </c>
       <c r="P101" s="52" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>35554404580</v>
+        <v>35789141896</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6118,7 +6148,7 @@
       </c>
       <c r="P102" s="49">
         <f>P101/P103</f>
-        <v>0.97843531528786887</v>
+        <v>0.97857372530188225</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6151,7 +6181,7 @@
       </c>
       <c r="P103" s="53">
         <f>P99+P101</f>
-        <v>36338022580</v>
+        <v>36572759896</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6179,10 +6209,10 @@
       <c r="H104" s="11">
         <v>2456924000</v>
       </c>
-      <c r="O104" s="71" t="s">
+      <c r="O104" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="P104" s="71"/>
+      <c r="P104" s="70"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6244,7 +6274,7 @@
       </c>
       <c r="P105" s="55">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>8.1143435716260259E-2</v>
+        <v>8.0863834466116849E-2</v>
       </c>
       <c r="Q105" s="15"/>
     </row>
@@ -6334,7 +6364,7 @@
       <c r="L107" s="26"/>
       <c r="M107" s="42">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>37755081657.499855</v>
+        <v>37944047705.598579</v>
       </c>
       <c r="N107" s="27" t="s">
         <v>142</v>
@@ -6365,7 +6395,7 @@
       </c>
       <c r="M108" s="42">
         <f>M107+M106</f>
-        <v>39823081657.499855</v>
+        <v>40012047705.598579</v>
       </c>
       <c r="N108" s="27" t="s">
         <v>138</v>
@@ -6375,7 +6405,7 @@
       </c>
       <c r="P108" s="57">
         <f>P105</f>
-        <v>8.1143435716260259E-2</v>
+        <v>8.0863834466116849E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6390,7 +6420,7 @@
       </c>
       <c r="J110" s="52">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>30199155901.683338</v>
+        <v>30364546846.489624</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6417,7 +6447,7 @@
       </c>
       <c r="J113" s="52">
         <f>J110+J111-J112</f>
-        <v>32120906901.683338</v>
+        <v>32286297846.489624</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6435,7 +6465,7 @@
       </c>
       <c r="J115" s="63">
         <f>J113/J114</f>
-        <v>113.13066505246353</v>
+        <v>113.71317623861593</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6444,7 +6474,7 @@
       </c>
       <c r="J116" s="64" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>149.94999999999999</v>
+        <v>150.94</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6453,7 +6483,7 @@
       </c>
       <c r="J117" s="65">
         <f>J115/J116-1</f>
-        <v>-0.24554408101058001</v>
+        <v>-0.24663325666744451</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C192F69-2B0B-7E4D-B8DB-989E2E0A160D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCE6C6-ADAD-5C4F-B67E-40A2147C0FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -546,9 +546,6 @@
     <t>Net Cash</t>
   </si>
   <si>
-    <t>Shares (5% dilution)</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
     <t>Unlevered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -573,7 +567,16 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>4Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Shares (3% dilution)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +704,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -922,12 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,8 +958,6 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
@@ -967,57 +970,125 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,14 +1144,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.41004651162790695"/>
-          <c:y val="2.7283065022012637E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1114,15 +1177,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6817275747508305E-2"/>
-          <c:y val="0.14943552937739235"/>
-          <c:w val="0.85603986710963442"/>
-          <c:h val="0.69635380812390857"/>
+          <c:x val="9.0086378737541523E-2"/>
+          <c:y val="0.17549597925684299"/>
+          <c:w val="0.84479734219269109"/>
+          <c:h val="0.57632949203775663"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1171,12 +1234,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$H$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>52745000</c:v>
                 </c:pt>
@@ -1197,13 +1305,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2241236000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3038000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3887000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4874000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6775000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8260000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63E9-F342-A77F-A615BA693BF5}"/>
+              <c16:uniqueId val="{00000000-E1AD-B74D-ABB5-16804D6C8DA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1254,12 +1377,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$H$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-91340000</c:v>
                 </c:pt>
@@ -1280,13 +1448,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-183245000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>578100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>760000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1032000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1337000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1832000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-63E9-F342-A77F-A615BA693BF5}"/>
+              <c16:uniqueId val="{00000001-E1AD-B74D-ABB5-16804D6C8DA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1295,11 +1478,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$105</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unlevered FCF</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1337,39 +1520,99 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$105:$H$105</c:f>
+              <c:f>'Sheet 1'!$B$107:$M$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-46934800</c:v>
+                  <c:v>-64645000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-77858000</c:v>
+                  <c:v>-88521000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-80644200</c:v>
+                  <c:v>-65613000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-76066000</c:v>
+                  <c:v>12456000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98931800</c:v>
+                  <c:v>292723000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164351600</c:v>
+                  <c:v>441775000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>208373400</c:v>
+                  <c:v>676893000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>684600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>756500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>954500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1782000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2069000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-63E9-F342-A77F-A615BA693BF5}"/>
+              <c16:uniqueId val="{00000002-E1AD-B74D-ABB5-16804D6C8DA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1381,13 +1624,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1882300799"/>
-        <c:axId val="1882309135"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1653030784"/>
+        <c:axId val="1651386928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1882300799"/>
+        <c:axId val="1653030784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1658,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1427,7 +1670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1882309135"/>
+        <c:crossAx val="1651386928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1435,9 +1678,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1882309135"/>
+        <c:axId val="1651386928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1483,7 +1727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1882300799"/>
+        <c:crossAx val="1653030784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1501,10 +1745,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33431595469171005"/>
-          <c:y val="0.89541945265827294"/>
-          <c:w val="0.33402579328746695"/>
-          <c:h val="6.2140223974151983E-2"/>
+          <c:x val="0.34232798807125847"/>
+          <c:y val="0.88268863216247451"/>
+          <c:w val="0.31534402385748295"/>
+          <c:h val="6.5885098732362715E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1611,7 +1855,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1849,7 +2093,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2084,22 +2327,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0822EE1-C3A6-9008-87E5-781DBD25613F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE8A5F8-C336-B82D-EB41-8568908D21C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,38 +2370,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2294,38 +2537,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>205.73</v>
+    <v>191.99</v>
     <v>92.25</v>
-    <v>0.9516</v>
-    <v>1.2</v>
-    <v>8.0140000000000003E-3</v>
-    <v>-0.44</v>
-    <v>-2.9149999999999996E-3</v>
+    <v>0.93630000000000002</v>
+    <v>-3.27</v>
+    <v>-1.7413000000000001E-2</v>
+    <v>-0.56000000000000005</v>
+    <v>-3.0349999999999999E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
-    <v>7321</v>
+    <v>7586</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>153.41</v>
+    <v>191.99</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.974640010936</v>
+    <v>45218.999974849219</v>
     <v>0</v>
-    <v>150.54</v>
-    <v>35789141896</v>
+    <v>183.96</v>
+    <v>44061198664</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>150.62</v>
-    <v>149.74</v>
-    <v>150.94</v>
-    <v>150.5</v>
-    <v>237108400</v>
+    <v>191.75</v>
+    <v>187.79</v>
+    <v>184.52</v>
+    <v>183.96</v>
+    <v>238788200</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>2245841</v>
-    <v>3535415</v>
+    <v>3518067</v>
+    <v>3228762</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2487,9 +2730,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2906,13 +3149,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM118"/>
+  <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3029,10 +3272,10 @@
         <v>2241236000</v>
       </c>
       <c r="I3" s="24">
-        <v>3022000000</v>
+        <v>3038000000</v>
       </c>
       <c r="J3" s="24">
-        <v>3877000000</v>
+        <v>3887000000</v>
       </c>
       <c r="K3" s="24">
         <v>4874000000</v>
@@ -3041,15 +3284,15 @@
         <v>6775000000</v>
       </c>
       <c r="M3" s="24">
-        <v>8255000000</v>
-      </c>
-      <c r="N3" s="30" t="s">
+        <v>8260000000</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="27" t="s">
         <v>111</v>
       </c>
       <c r="Q3" s="19" t="s">
@@ -3089,15 +3332,15 @@
       </c>
       <c r="I4" s="16">
         <f>(I3/H3)-1</f>
-        <v>0.34836313534139207</v>
+        <v>0.35550205333128693</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28292521508934487</v>
+        <v>0.27946017116524025</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25715759607944277</v>
+        <v>0.25392333419089264</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
@@ -3105,17 +3348,17 @@
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21845018450184495</v>
-      </c>
-      <c r="N4" s="31">
+        <v>0.21918819188191874</v>
+      </c>
+      <c r="N4" s="28">
         <f>(G4+F4+H4)/3</f>
         <v>0.67347075956303415</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="28">
         <f>(G20+F20+H20)/3</f>
         <v>9.301753392992225E-2</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="28">
         <f>(G29+F29+H29)/3</f>
         <v>0.31686467072325802</v>
       </c>
@@ -3195,16 +3438,16 @@
       <c r="H6" s="10">
         <v>1640005000</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="73" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3233,21 +3476,21 @@
       <c r="H7" s="2">
         <v>0.73170000000000002</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="28">
         <f>H7</f>
         <v>0.73170000000000002</v>
       </c>
-      <c r="O7" s="31">
-        <f>H21</f>
-        <v>-1.8599999999999998E-2</v>
-      </c>
-      <c r="P7" s="31">
-        <f>H30</f>
-        <v>-8.1799999999999998E-2</v>
+      <c r="O7" s="28">
+        <f>I21</f>
+        <v>0.20638578011849901</v>
+      </c>
+      <c r="P7" s="28">
+        <f>I30</f>
+        <v>0.19028966425279789</v>
       </c>
       <c r="Q7" s="17">
-        <f>H107/H3</f>
-        <v>0.3020177259333689</v>
+        <f>I107/I3</f>
+        <v>0.22534562211981568</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -3310,7 +3553,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="27" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="19" t="s">
@@ -3348,15 +3591,15 @@
       <c r="H10" s="1">
         <v>317344000</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="28">
         <f>(G9+F9+H9)/3</f>
         <v>0.25757072625991556</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="28">
         <f>(G13+F13+H13)/3</f>
         <v>0.57378810025399529</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="28">
         <f>(G80+F80+H80)/3</f>
         <v>0.20653638510830544</v>
       </c>
@@ -3416,13 +3659,13 @@
       <c r="H12" s="1">
         <v>1221753000</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="27" t="s">
         <v>119</v>
       </c>
       <c r="Q12" s="19" t="s">
@@ -3463,7 +3706,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="N13" s="31">
+      <c r="N13" s="28">
         <f>H28/H72</f>
         <v>-0.12519805061487072</v>
       </c>
@@ -3471,7 +3714,7 @@
         <f>H28/H54</f>
         <v>-3.6455494236592167E-2</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="28">
         <f>(H28-H98)/H73</f>
         <v>-3.6628876095473148E-2</v>
       </c>
@@ -3531,7 +3774,7 @@
       <c r="H15" s="1">
         <v>1830117000</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="27" t="s">
         <v>121</v>
       </c>
       <c r="O15" s="19" t="s">
@@ -3540,7 +3783,7 @@
       <c r="P15" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="29" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3573,17 +3816,17 @@
         <f>(SUM(D35:H35)/5)</f>
         <v>8.101030415292805E-2</v>
       </c>
-      <c r="O16" s="39">
-        <f>P101/H3</f>
-        <v>15.968484307765893</v>
-      </c>
-      <c r="P16" s="39">
-        <f>P101/H25</f>
-        <v>-223.84582410887961</v>
-      </c>
-      <c r="Q16" s="40">
-        <f>P101/H107</f>
-        <v>52.872672484425159</v>
+      <c r="O16" s="36">
+        <f>P102/H3</f>
+        <v>19.659330237422566</v>
+      </c>
+      <c r="P16" s="36">
+        <f>P102/H25</f>
+        <v>-275.58401245911074</v>
+      </c>
+      <c r="Q16" s="37">
+        <f>P102/H107</f>
+        <v>65.093299330913453</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3637,17 +3880,17 @@
       <c r="H18" s="1">
         <v>93810000</v>
       </c>
-      <c r="N18" s="33" t="s">
+      <c r="N18" s="30" t="s">
         <v>156</v>
       </c>
       <c r="O18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="P18" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="Q18" s="29" t="s">
         <v>159</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3675,36 +3918,36 @@
       <c r="H19" s="10">
         <v>-41714000</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="32">
         <v>627000000</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="32">
         <v>850700000</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="32">
         <v>1133000000</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="32">
         <v>1915000000</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="32">
         <v>2746000000</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="31">
         <f>H40-H56-H61</f>
         <v>1921751000</v>
       </c>
-      <c r="O19" s="39">
-        <f>P101/I3</f>
-        <v>11.842866279285241</v>
-      </c>
-      <c r="P19" s="39">
-        <f>P101/I28</f>
-        <v>61.908219851236808</v>
-      </c>
-      <c r="Q19" s="40">
-        <f>P101/I106</f>
-        <v>59.54932095840266</v>
+      <c r="O19" s="36">
+        <f>P102/I3</f>
+        <v>14.503357032258064</v>
+      </c>
+      <c r="P19" s="36">
+        <f>P102/I28</f>
+        <v>76.217261138211384</v>
+      </c>
+      <c r="Q19" s="37">
+        <f>P102/I107</f>
+        <v>64.36050053169734</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3783,31 +4026,34 @@
       <c r="H21" s="2">
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="46">
         <f>I19/I3</f>
-        <v>0.20747849106551952</v>
-      </c>
-      <c r="J21" s="71">
+        <v>0.20638578011849901</v>
+      </c>
+      <c r="J21" s="46">
         <f t="shared" ref="J21:M21" si="9">J19/J3</f>
-        <v>0.21942223368583957</v>
-      </c>
-      <c r="K21" s="71">
+        <v>0.21885773089786467</v>
+      </c>
+      <c r="K21" s="46">
         <f t="shared" si="9"/>
         <v>0.23245794009027493</v>
       </c>
-      <c r="L21" s="71">
+      <c r="L21" s="46">
         <f t="shared" si="9"/>
         <v>0.28265682656826568</v>
       </c>
-      <c r="M21" s="71">
+      <c r="M21" s="46">
         <f t="shared" si="9"/>
-        <v>0.33264688067837672</v>
-      </c>
-      <c r="P21" s="33" t="s">
+        <v>0.33244552058111382</v>
+      </c>
+      <c r="O21" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q21" s="29" t="s">
         <v>165</v>
-      </c>
-      <c r="Q21" s="32" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3835,13 +4081,17 @@
       <c r="H22" s="10">
         <v>-190112000</v>
       </c>
-      <c r="P22" s="44">
-        <f>(-1*H98)/P101</f>
+      <c r="O22" s="48">
+        <f>SUM(J29:M29)/4</f>
+        <v>0.33458016981656591</v>
+      </c>
+      <c r="P22" s="39">
+        <f>(-1*H98)/P102</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="45">
-        <f>H107/P101</f>
-        <v>1.8913362102030543E-2</v>
+      <c r="Q22" s="40">
+        <f>I107/P102</f>
+        <v>1.5537480158463081E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3999,19 +4249,19 @@
       <c r="H28" s="11">
         <v>-183245000</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="34">
         <v>578100000</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="34">
         <v>760000000</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="34">
         <v>1032000000</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="34">
         <v>1337000000</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="34">
         <v>1832000000</v>
       </c>
     </row>
@@ -4090,25 +4340,25 @@
       <c r="H30" s="2">
         <v>-8.1799999999999998E-2</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="33">
         <f>I28/I3</f>
-        <v>0.19129715420251489</v>
-      </c>
-      <c r="J30" s="36">
+        <v>0.19028966425279789</v>
+      </c>
+      <c r="J30" s="33">
         <f t="shared" ref="J30:M30" si="16">J28/J3</f>
-        <v>0.19602785659014701</v>
-      </c>
-      <c r="K30" s="36">
+        <v>0.19552354000514535</v>
+      </c>
+      <c r="K30" s="33">
         <f t="shared" si="16"/>
         <v>0.21173574066475173</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="33">
         <f t="shared" si="16"/>
         <v>0.19734317343173433</v>
       </c>
-      <c r="M30" s="36">
+      <c r="M30" s="33">
         <f t="shared" si="16"/>
-        <v>0.22192610539067231</v>
+        <v>0.22179176755447941</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -4136,19 +4386,19 @@
       <c r="H31" s="12">
         <v>-0.79</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="35">
         <v>2.44</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="35">
         <v>3.21</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="35">
         <v>4.3499999999999996</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="35">
         <v>5.64</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31" s="35">
         <v>7.73</v>
       </c>
       <c r="Q31" s="15"/>
@@ -4204,6 +4454,10 @@
       <c r="H33" s="1">
         <v>233139000</v>
       </c>
+      <c r="I33" s="1" cm="1">
+        <f t="array" ref="I33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>238788200</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -4229,6 +4483,10 @@
       </c>
       <c r="H34" s="1">
         <v>233139000</v>
+      </c>
+      <c r="I34" s="1" cm="1">
+        <f t="array" ref="I34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>238788200</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:H35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:I35" si="17">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
@@ -4259,6 +4517,10 @@
       <c r="H35" s="22">
         <f t="shared" si="17"/>
         <v>2.6401986422590274E-2</v>
+      </c>
+      <c r="I35" s="22">
+        <f t="shared" si="17"/>
+        <v>2.4231038136047593E-2</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5519,10 +5781,6 @@
       <c r="H83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O83" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="P83" s="69"/>
     </row>
     <row r="84" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5549,12 +5807,18 @@
       <c r="H84" s="1">
         <v>-15463000</v>
       </c>
-      <c r="O84" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="P84" s="70"/>
-    </row>
-    <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="P84" s="79"/>
+    </row>
+    <row r="85" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5579,13 +5843,16 @@
       <c r="H85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O85" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="P85" s="47">
-        <f>H17</f>
-        <v>25319000</v>
-      </c>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P85" s="80"/>
     </row>
     <row r="86" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5612,12 +5879,18 @@
       <c r="H86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O86" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P86" s="47">
-        <f>H56</f>
-        <v>13046000</v>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="P86" s="49">
+        <f>H17</f>
+        <v>25319000</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5645,12 +5918,18 @@
       <c r="H87" s="10">
         <v>941007000</v>
       </c>
-      <c r="O87" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="P87" s="47">
-        <f>H61</f>
-        <v>770572000</v>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="P87" s="49">
+        <f>H56</f>
+        <v>13046000</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5678,12 +5957,18 @@
       <c r="H88" s="1">
         <v>-235019000</v>
       </c>
-      <c r="O88" s="48" t="s">
-        <v>126</v>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="P88" s="49">
-        <f>P85/(P86+P87)</f>
-        <v>3.231038592783729E-2</v>
+        <f>H61</f>
+        <v>770572000</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5718,14 +6003,18 @@
         <f t="shared" si="19"/>
         <v>0.10486133544169378</v>
       </c>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="O89" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="P89" s="47">
-        <f>H27</f>
-        <v>22402000</v>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="P89" s="50">
+        <f>P86/(P87+P88)</f>
+        <v>3.231038592783729E-2</v>
       </c>
       <c r="Q89" s="15"/>
     </row>
@@ -5754,12 +6043,18 @@
       <c r="H90" s="1">
         <v>-18349000</v>
       </c>
-      <c r="O90" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="P90" s="47">
-        <f>H25</f>
-        <v>-159883000</v>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="P90" s="49">
+        <f>H27</f>
+        <v>22402000</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5787,12 +6082,18 @@
       <c r="H91" s="1">
         <v>-271872000</v>
       </c>
-      <c r="O91" s="48" t="s">
-        <v>128</v>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="P91" s="49">
-        <f>P89/P90</f>
-        <v>-0.14011495906381541</v>
+        <f>H25</f>
+        <v>-159883000</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5820,12 +6121,18 @@
       <c r="H92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O92" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="P92" s="49">
-        <f>P88*(1-P91)</f>
-        <v>3.6837554329452286E-2</v>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="P92" s="50">
+        <f>P90/P91</f>
+        <v>-0.14011495906381541</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5853,12 +6160,21 @@
       <c r="H93" s="1">
         <v>-31418000</v>
       </c>
-      <c r="O93" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="P93" s="70"/>
-    </row>
-    <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="P93" s="50">
+        <f>P89*(1-P92)</f>
+        <v>3.6837554329452286E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -5883,13 +6199,16 @@
       <c r="H94" s="10">
         <v>-556658000</v>
       </c>
-      <c r="O94" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="P94" s="50">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="P94" s="80"/>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -5916,12 +6235,18 @@
       <c r="H95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O95" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="P95" s="51" cm="1">
-        <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.9516</v>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="P95" s="74">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5949,11 +6274,18 @@
       <c r="H96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O96" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="P96" s="50">
-        <v>8.4000000000000005E-2</v>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="P96" s="53" cm="1">
+        <f t="array" ref="P96">_FV(A1,"Beta")</f>
+        <v>0.93630000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5981,45 +6313,59 @@
       <c r="H97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O97" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="P97" s="49">
-        <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.1827808000000002E-2</v>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P97" s="52">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B98" s="26">
         <v>0</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="26">
         <v>0</v>
       </c>
-      <c r="D98" s="28">
+      <c r="D98" s="26">
         <v>0</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="26">
         <v>0</v>
       </c>
-      <c r="F98" s="28">
+      <c r="F98" s="26">
         <v>0</v>
       </c>
-      <c r="G98" s="28">
+      <c r="G98" s="26">
         <v>0</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="O98" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="P98" s="70"/>
-    </row>
-    <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="P98" s="50">
+        <f>(P95)+((P96)*(P97-P95))</f>
+        <v>8.1771774000000005E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -6044,13 +6390,16 @@
       <c r="H99" s="1">
         <v>77437000</v>
       </c>
-      <c r="O99" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="P99" s="47">
-        <f>P86+P87</f>
-        <v>783618000</v>
-      </c>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="P99" s="80"/>
     </row>
     <row r="100" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -6077,12 +6426,18 @@
       <c r="H100" s="10">
         <v>77437000</v>
       </c>
-      <c r="O100" s="48" t="s">
-        <v>105</v>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="P100" s="49">
-        <f>P99/P103</f>
-        <v>2.1426274698117739E-2</v>
+        <f>P87+P88</f>
+        <v>783618000</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6110,12 +6465,18 @@
       <c r="H101" s="1">
         <v>-1495000</v>
       </c>
-      <c r="O101" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="P101" s="52" cm="1">
-        <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>35789141896</v>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="P101" s="50">
+        <f>P100/P104</f>
+        <v>1.7473992721862629E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6143,12 +6504,18 @@
       <c r="H102" s="10">
         <v>460291000</v>
       </c>
-      <c r="O102" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="P102" s="49">
-        <f>P101/P103</f>
-        <v>0.97857372530188225</v>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="P102" s="54" cm="1">
+        <f t="array" ref="P102">_FV(A1,"Market cap",TRUE)</f>
+        <v>44061198664</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,12 +6543,18 @@
       <c r="H103" s="1">
         <v>1996633000</v>
       </c>
-      <c r="O103" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="P103" s="53">
-        <f>P99+P101</f>
-        <v>36572759896</v>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="P103" s="50">
+        <f>P102/P104</f>
+        <v>0.98252600727813733</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6209,14 +6582,25 @@
       <c r="H104" s="11">
         <v>2456924000</v>
       </c>
-      <c r="O104" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="P104" s="70"/>
-    </row>
-    <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I104" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="J104" s="81"/>
+      <c r="K104" s="81"/>
+      <c r="L104" s="81"/>
+      <c r="M104" s="81"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="P104" s="55">
+        <f>P100+P102</f>
+        <v>44844816664</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" ref="B105:G105" si="20">(B22*(1-0.2))+B77+B88+B81</f>
@@ -6246,96 +6630,99 @@
         <f>(H22*(1-0.2))+H77+H88+H81</f>
         <v>208373400</v>
       </c>
-      <c r="I105" s="29">
-        <f>H105*(1+$P$106)</f>
-        <v>270757264.31003743</v>
-      </c>
-      <c r="J105" s="29">
-        <f t="shared" ref="J105:M105" si="21">I105*(1+$P$106)</f>
-        <v>351817920.02556694</v>
-      </c>
-      <c r="K105" s="29">
-        <f t="shared" si="21"/>
-        <v>457146917.79934496</v>
-      </c>
-      <c r="L105" s="29">
-        <f t="shared" si="21"/>
-        <v>594009834.51398396</v>
-      </c>
-      <c r="M105" s="29">
-        <f t="shared" si="21"/>
-        <v>771847451.57618165</v>
-      </c>
-      <c r="N105" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="O105" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="P105" s="55">
-        <f>(P100*P92)+(P102*P97)</f>
-        <v>8.0863834466116849E-2</v>
-      </c>
+      <c r="I105" s="75">
+        <f>I107/I3</f>
+        <v>0.22534562211981568</v>
+      </c>
+      <c r="J105" s="75">
+        <f>J107/J3</f>
+        <v>0.19462310264985849</v>
+      </c>
+      <c r="K105" s="75">
+        <f>K107/K3</f>
+        <v>0.19583504308576119</v>
+      </c>
+      <c r="L105" s="75">
+        <f>L107/L3</f>
+        <v>0.26302583025830256</v>
+      </c>
+      <c r="M105" s="75">
+        <f>M107/M3</f>
+        <v>0.25048426150121067</v>
+      </c>
+      <c r="N105" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="O105" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="P105" s="80"/>
       <c r="Q105" s="15"/>
     </row>
-    <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:H106" si="22">(C107/B107)-1</f>
+        <f t="shared" ref="C106:H106" si="21">(C107/B107)-1</f>
         <v>0.36934024286487732</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.25878605076761452</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1.1898404279639705</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>22.500561978163134</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.50919128322680485</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.53221209891913301</v>
       </c>
-      <c r="I106" s="41">
-        <v>601000000</v>
-      </c>
-      <c r="J106" s="41">
-        <v>730600000</v>
-      </c>
-      <c r="K106" s="41">
-        <v>924200000</v>
-      </c>
-      <c r="L106" s="41">
-        <v>1813000000</v>
-      </c>
-      <c r="M106" s="41">
-        <v>2068000000</v>
-      </c>
-      <c r="N106" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="O106" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="P106" s="57">
-        <f>(SUM(I4:M4)/5)</f>
-        <v>0.29938497097056249</v>
+      <c r="I106" s="57">
+        <f>(I107/H107)-1</f>
+        <v>1.1385846802965949E-2</v>
+      </c>
+      <c r="J106" s="57">
+        <f>(J107/I107)-1</f>
+        <v>0.10502483201869706</v>
+      </c>
+      <c r="K106" s="57">
+        <f>(K107/J107)-1</f>
+        <v>0.26173165895571704</v>
+      </c>
+      <c r="L106" s="57">
+        <f>(L107/K107)-1</f>
+        <v>0.86694604504976436</v>
+      </c>
+      <c r="M106" s="57">
+        <f>(M107/L107)-1</f>
+        <v>0.16105499438832771</v>
+      </c>
+      <c r="N106" s="58">
+        <f>SUM(I106:M106)/5</f>
+        <v>0.28122867544309443</v>
+      </c>
+      <c r="O106" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="P106" s="59">
+        <f>(P101*P93)+(P103*P98)</f>
+        <v>8.098659377251427E-2</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="43" t="s">
-        <v>164</v>
+      <c r="A107" s="38" t="s">
+        <v>162</v>
       </c>
       <c r="B107" s="1">
         <v>-64645000</v>
@@ -6358,151 +6745,239 @@
       <c r="H107" s="1">
         <v>676893000</v>
       </c>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="42">
-        <f>M106*(1+P107)/(P108-P107)</f>
-        <v>37944047705.598579</v>
-      </c>
-      <c r="N107" s="27" t="s">
+      <c r="I107" s="60">
+        <v>684600000</v>
+      </c>
+      <c r="J107" s="60">
+        <v>756500000</v>
+      </c>
+      <c r="K107" s="60">
+        <v>954500000</v>
+      </c>
+      <c r="L107" s="60">
+        <v>1782000000</v>
+      </c>
+      <c r="M107" s="60">
+        <v>2069000000</v>
+      </c>
+      <c r="N107" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="O107" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="P107" s="44">
+        <f>(SUM(I4:M4)/5)</f>
+        <v>0.29962049488202525</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="I108" s="82"/>
+      <c r="J108" s="82"/>
+      <c r="K108" s="82"/>
+      <c r="L108" s="82"/>
+      <c r="M108" s="62">
+        <f>M107*(1+P108)/(P109-P108)</f>
+        <v>37879157439.31427</v>
+      </c>
+      <c r="N108" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="O107" s="58" t="s">
+      <c r="O108" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="P107" s="59">
+      <c r="P108" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="I108" s="42">
-        <f t="shared" ref="I108:L108" si="23">I107+I106</f>
-        <v>601000000</v>
-      </c>
-      <c r="J108" s="42">
-        <f t="shared" si="23"/>
-        <v>730600000</v>
-      </c>
-      <c r="K108" s="42">
-        <f t="shared" si="23"/>
-        <v>924200000</v>
-      </c>
-      <c r="L108" s="42">
-        <f t="shared" si="23"/>
-        <v>1813000000</v>
-      </c>
-      <c r="M108" s="42">
-        <f>M107+M106</f>
-        <v>40012047705.598579</v>
-      </c>
-      <c r="N108" s="27" t="s">
+    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="I109" s="62">
+        <f t="shared" ref="I109:L109" si="22">I108+I107</f>
+        <v>684600000</v>
+      </c>
+      <c r="J109" s="62">
+        <f t="shared" si="22"/>
+        <v>756500000</v>
+      </c>
+      <c r="K109" s="62">
+        <f t="shared" si="22"/>
+        <v>954500000</v>
+      </c>
+      <c r="L109" s="62">
+        <f t="shared" si="22"/>
+        <v>1782000000</v>
+      </c>
+      <c r="M109" s="62">
+        <f>M108+M107</f>
+        <v>39948157439.31427</v>
+      </c>
+      <c r="N109" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="O108" s="60" t="s">
+      <c r="O109" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="P108" s="57">
-        <f>P105</f>
-        <v>8.0863834466116849E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="67" t="s">
+      <c r="P109" s="44">
+        <f>P106</f>
+        <v>8.098659377251427E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="I110" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="J109" s="67"/>
-    </row>
-    <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="I110" s="61" t="s">
+      <c r="J110" s="77"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+    </row>
+    <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="I111" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="J110" s="52">
-        <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>30364546846.489624</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="I111" s="61" t="s">
+      <c r="J111" s="54">
+        <f>NPV(P109,I109,J109,K109,L109,M109)</f>
+        <v>30405593075.722839</v>
+      </c>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+    </row>
+    <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="I112" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="J111" s="52">
+      <c r="J112" s="54">
         <f>H40</f>
         <v>2705369000</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="I112" s="61" t="s">
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+    </row>
+    <row r="113" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I113" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="J112" s="52">
-        <f>P99</f>
+      <c r="J113" s="54">
+        <f>P100</f>
         <v>783618000</v>
       </c>
-    </row>
-    <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I113" s="61" t="s">
+      <c r="K113" s="25"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+    </row>
+    <row r="114" spans="9:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I114" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="J113" s="52">
-        <f>J110+J111-J112</f>
-        <v>32286297846.489624</v>
-      </c>
-    </row>
-    <row r="114" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I114" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="J114" s="61">
-        <f>G34*(1+(5*0.05))</f>
-        <v>283927500</v>
-      </c>
-    </row>
-    <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I115" s="62" t="s">
+      <c r="J114" s="54">
+        <f>J111+J112-J113</f>
+        <v>32327344075.722839</v>
+      </c>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+    </row>
+    <row r="115" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I115" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="J115" s="66">
+        <f>G34*(1+(5*0.03))</f>
+        <v>261213299.99999997</v>
+      </c>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+    </row>
+    <row r="116" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I116" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="J115" s="63">
-        <f>J113/J114</f>
-        <v>113.71317623861593</v>
-      </c>
-    </row>
-    <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I116" s="61" t="s">
+      <c r="J116" s="68">
+        <f>J114/J115</f>
+        <v>123.75841534762144</v>
+      </c>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+    </row>
+    <row r="117" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I117" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="J116" s="64" cm="1">
-        <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>150.94</v>
-      </c>
-    </row>
-    <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I117" s="62" t="s">
+      <c r="J117" s="69" cm="1">
+        <f t="array" ref="J117">_FV(A1,"Price")</f>
+        <v>184.52</v>
+      </c>
+      <c r="K117" s="25"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="25"/>
+      <c r="P117" s="25"/>
+    </row>
+    <row r="118" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I118" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="J117" s="65">
-        <f>J115/J116-1</f>
-        <v>-0.24663325666744451</v>
-      </c>
-    </row>
-    <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I118" s="62" t="s">
+      <c r="J118" s="70">
+        <f>J116/J117-1</f>
+        <v>-0.32929538614989473</v>
+      </c>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
+    </row>
+    <row r="119" spans="9:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="I119" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="J118" s="66" t="str">
-        <f>IF(J115&gt;J116,"BUY","SELL")</f>
+      <c r="J119" s="71" t="str">
+        <f>IF(J116&gt;J117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="O83:P83"/>
+  <mergeCells count="7">
+    <mergeCell ref="I110:J110"/>
     <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="I104:M104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CRWD" display="ROIC.AI | CRWD" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6521,7 +6996,7 @@
     <hyperlink ref="I1" r:id="rId14" display="https://finbox.com/NASDAQGS:CRWD/explorer/revenue_proj" xr:uid="{6392E823-401A-E146-8E1E-52CD472DB84C}"/>
     <hyperlink ref="H36" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1535527/000153552723000008/0001535527-23-000008-index.htm" xr:uid="{CBD97F73-9851-F842-98DD-410ED5E5C4D8}"/>
     <hyperlink ref="H74" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1535527/000153552723000008/0001535527-23-000008-index.htm" xr:uid="{C6421D81-E573-7B49-84F9-577686F587B0}"/>
-    <hyperlink ref="N106" r:id="rId17" xr:uid="{696891C6-4F42-6F4B-A128-0F8ECA29C002}"/>
+    <hyperlink ref="N107" r:id="rId17" xr:uid="{696891C6-4F42-6F4B-A128-0F8ECA29C002}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId18"/>

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCE6C6-ADAD-5C4F-B67E-40A2147C0FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525A1105-CA96-FA49-A6B1-9E07DDE9CFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,6 +1071,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,9 +1088,6 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2373,13 +2373,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2395,14 +2397,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2412,6 +2414,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2539,11 +2543,11 @@
     <v>Powered by Refinitiv</v>
     <v>191.99</v>
     <v>92.25</v>
-    <v>0.93630000000000002</v>
-    <v>-3.27</v>
-    <v>-1.7413000000000001E-2</v>
-    <v>-0.56000000000000005</v>
-    <v>-3.0349999999999999E-3</v>
+    <v>0.92230000000000001</v>
+    <v>1.18</v>
+    <v>6.875E-3</v>
+    <v>-0.14000000000000001</v>
+    <v>-8.1010000000000001E-4</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7586</v>
@@ -2551,24 +2555,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>191.99</v>
+    <v>175.7</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.999974849219</v>
+    <v>45226.99816387656</v>
     <v>0</v>
-    <v>183.96</v>
-    <v>44061198664</v>
+    <v>171.2216</v>
+    <v>41267380000</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>191.75</v>
-    <v>187.79</v>
-    <v>184.52</v>
-    <v>183.96</v>
+    <v>174.22</v>
+    <v>171.64</v>
+    <v>172.82</v>
+    <v>172.68</v>
     <v>238788200</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>3518067</v>
-    <v>3228762</v>
+    <v>1795144</v>
+    <v>3032932</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2730,9 +2734,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3152,10 +3156,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomRight" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3813,20 +3817,20 @@
         <v>2431348000</v>
       </c>
       <c r="N16" s="20">
-        <f>(SUM(D35:H35)/5)</f>
-        <v>8.101030415292805E-2</v>
+        <f>AVERAGE(E35:I35)</f>
+        <v>8.5856511780137562E-2</v>
       </c>
       <c r="O16" s="36">
         <f>P102/H3</f>
-        <v>19.659330237422566</v>
+        <v>18.412777592364215</v>
       </c>
       <c r="P16" s="36">
         <f>P102/H25</f>
-        <v>-275.58401245911074</v>
+        <v>-258.10986784085861</v>
       </c>
       <c r="Q16" s="37">
         <f>P102/H107</f>
-        <v>65.093299330913453</v>
+        <v>60.965883825065411</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3939,15 +3943,15 @@
       </c>
       <c r="O19" s="36">
         <f>P102/I3</f>
-        <v>14.503357032258064</v>
+        <v>13.583732718894009</v>
       </c>
       <c r="P19" s="36">
         <f>P102/I28</f>
-        <v>76.217261138211384</v>
+        <v>71.384500951392496</v>
       </c>
       <c r="Q19" s="37">
         <f>P102/I107</f>
-        <v>64.36050053169734</v>
+        <v>60.279550102249488</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4091,7 +4095,7 @@
       </c>
       <c r="Q22" s="40">
         <f>I107/P102</f>
-        <v>1.5537480158463081E-2</v>
+        <v>1.6589373980126675E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5813,10 +5817,10 @@
       <c r="L84" s="25"/>
       <c r="M84" s="25"/>
       <c r="N84" s="25"/>
-      <c r="O84" s="78" t="s">
+      <c r="O84" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="P84" s="79"/>
+      <c r="P84" s="80"/>
     </row>
     <row r="85" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5849,10 +5853,10 @@
       <c r="L85" s="25"/>
       <c r="M85" s="25"/>
       <c r="N85" s="25"/>
-      <c r="O85" s="80" t="s">
+      <c r="O85" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="P85" s="80"/>
+      <c r="P85" s="81"/>
     </row>
     <row r="86" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -6205,10 +6209,10 @@
       <c r="L94" s="25"/>
       <c r="M94" s="25"/>
       <c r="N94" s="25"/>
-      <c r="O94" s="80" t="s">
+      <c r="O94" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="P94" s="80"/>
+      <c r="P94" s="81"/>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -6246,7 +6250,7 @@
       </c>
       <c r="P95" s="74">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6285,7 +6289,7 @@
       </c>
       <c r="P96" s="53" cm="1">
         <f t="array" ref="P96">_FV(A1,"Beta")</f>
-        <v>0.93630000000000002</v>
+        <v>0.92230000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6362,7 +6366,7 @@
       </c>
       <c r="P98" s="50">
         <f>(P95)+((P96)*(P97-P95))</f>
-        <v>8.1771774000000005E-2</v>
+        <v>8.1237765000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6396,10 +6400,10 @@
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
       <c r="N99" s="25"/>
-      <c r="O99" s="80" t="s">
+      <c r="O99" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="P99" s="80"/>
+      <c r="P99" s="81"/>
     </row>
     <row r="100" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -6476,7 +6480,7 @@
       </c>
       <c r="P101" s="50">
         <f>P100/P104</f>
-        <v>1.7473992721862629E-2</v>
+        <v>1.8634944169458236E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6515,7 +6519,7 @@
       </c>
       <c r="P102" s="54" cm="1">
         <f t="array" ref="P102">_FV(A1,"Market cap",TRUE)</f>
-        <v>44061198664</v>
+        <v>41267380000</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6554,7 +6558,7 @@
       </c>
       <c r="P103" s="50">
         <f>P102/P104</f>
-        <v>0.98252600727813733</v>
+        <v>0.98136505583054179</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6582,20 +6586,20 @@
       <c r="H104" s="11">
         <v>2456924000</v>
       </c>
-      <c r="I104" s="81" t="s">
+      <c r="I104" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="J104" s="81"/>
-      <c r="K104" s="81"/>
-      <c r="L104" s="81"/>
-      <c r="M104" s="81"/>
+      <c r="J104" s="82"/>
+      <c r="K104" s="82"/>
+      <c r="L104" s="82"/>
+      <c r="M104" s="82"/>
       <c r="N104" s="25"/>
       <c r="O104" s="42" t="s">
         <v>138</v>
       </c>
       <c r="P104" s="55">
         <f>P100+P102</f>
-        <v>44844816664</v>
+        <v>42050998000</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6653,10 +6657,10 @@
       <c r="N105" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="O105" s="80" t="s">
+      <c r="O105" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="P105" s="80"/>
+      <c r="P105" s="81"/>
       <c r="Q105" s="15"/>
     </row>
     <row r="106" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6717,7 +6721,7 @@
       </c>
       <c r="P106" s="59">
         <f>(P101*P93)+(P103*P98)</f>
-        <v>8.098659377251427E-2</v>
+        <v>8.0410369553042163E-2</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6772,13 +6776,13 @@
       </c>
     </row>
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="I108" s="82"/>
-      <c r="J108" s="82"/>
-      <c r="K108" s="82"/>
-      <c r="L108" s="82"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
       <c r="M108" s="62">
         <f>M107*(1+P108)/(P109-P108)</f>
-        <v>37879157439.31427</v>
+        <v>38273070854.90403</v>
       </c>
       <c r="N108" s="63" t="s">
         <v>142</v>
@@ -6809,7 +6813,7 @@
       </c>
       <c r="M109" s="62">
         <f>M108+M107</f>
-        <v>39948157439.31427</v>
+        <v>40342070854.90403</v>
       </c>
       <c r="N109" s="63" t="s">
         <v>138</v>
@@ -6819,14 +6823,14 @@
       </c>
       <c r="P109" s="44">
         <f>P106</f>
-        <v>8.098659377251427E-2</v>
+        <v>8.0410369553042163E-2</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="I110" s="77" t="s">
+      <c r="I110" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="J110" s="77"/>
+      <c r="J110" s="78"/>
       <c r="K110" s="25"/>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
@@ -6840,7 +6844,7 @@
       </c>
       <c r="J111" s="54">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>30405593075.722839</v>
+        <v>30750448620.704472</v>
       </c>
       <c r="K111" s="25"/>
       <c r="L111" s="25"/>
@@ -6885,7 +6889,7 @@
       </c>
       <c r="J114" s="54">
         <f>J111+J112-J113</f>
-        <v>32327344075.722839</v>
+        <v>32672199620.704472</v>
       </c>
       <c r="K114" s="25"/>
       <c r="L114" s="25"/>
@@ -6915,7 +6919,7 @@
       </c>
       <c r="J116" s="68">
         <f>J114/J115</f>
-        <v>123.75841534762144</v>
+        <v>125.07862203304531</v>
       </c>
       <c r="K116" s="25"/>
       <c r="L116" s="25"/>
@@ -6930,7 +6934,7 @@
       </c>
       <c r="J117" s="69" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>184.52</v>
+        <v>172.82</v>
       </c>
       <c r="K117" s="25"/>
       <c r="L117" s="25"/>
@@ -6945,7 +6949,7 @@
       </c>
       <c r="J118" s="70">
         <f>J116/J117-1</f>
-        <v>-0.32929538614989473</v>
+        <v>-0.27624914921279187</v>
       </c>
       <c r="K118" s="25"/>
       <c r="L118" s="25"/>

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525A1105-CA96-FA49-A6B1-9E07DDE9CFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D20197-D0A4-F14A-AAE0-788F371FD3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2378,13 +2378,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2401,7 +2398,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.6689999999999995E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2413,9 +2410,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2543,11 +2537,11 @@
     <v>Powered by Refinitiv</v>
     <v>191.99</v>
     <v>92.25</v>
-    <v>0.92230000000000001</v>
-    <v>1.18</v>
-    <v>6.875E-3</v>
-    <v>-0.14000000000000001</v>
-    <v>-8.1010000000000001E-4</v>
+    <v>0.92779999999999996</v>
+    <v>5.44</v>
+    <v>2.9759000000000001E-2</v>
+    <v>-0.04</v>
+    <v>-2.1250000000000002E-4</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7586</v>
@@ -2555,24 +2549,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>175.7</v>
+    <v>188.74</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.99816387656</v>
+    <v>45233.999669073441</v>
     <v>0</v>
-    <v>171.2216</v>
-    <v>41267380000</v>
+    <v>178.35</v>
+    <v>44949490768</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>174.22</v>
-    <v>171.64</v>
-    <v>172.82</v>
-    <v>172.68</v>
+    <v>182.67</v>
+    <v>182.8</v>
+    <v>188.24</v>
+    <v>188.2</v>
     <v>238788200</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>1795144</v>
-    <v>3032932</v>
+    <v>3262990</v>
+    <v>2967728</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2734,9 +2728,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3156,10 +3150,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G116" sqref="G116"/>
+      <selection pane="bottomRight" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3822,15 +3816,15 @@
       </c>
       <c r="O16" s="36">
         <f>P102/H3</f>
-        <v>18.412777592364215</v>
+        <v>20.055670517518013</v>
       </c>
       <c r="P16" s="36">
         <f>P102/H25</f>
-        <v>-258.10986784085861</v>
+        <v>-281.13990085249839</v>
       </c>
       <c r="Q16" s="37">
         <f>P102/H107</f>
-        <v>60.965883825065411</v>
+        <v>66.405607338235143</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3943,15 +3937,15 @@
       </c>
       <c r="O19" s="36">
         <f>P102/I3</f>
-        <v>13.583732718894009</v>
+        <v>14.79575074654378</v>
       </c>
       <c r="P19" s="36">
         <f>P102/I28</f>
-        <v>71.384500951392496</v>
+        <v>77.75383284552845</v>
       </c>
       <c r="Q19" s="37">
         <f>P102/I107</f>
-        <v>60.279550102249488</v>
+        <v>65.65803501022495</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4095,7 +4089,7 @@
       </c>
       <c r="Q22" s="40">
         <f>I107/P102</f>
-        <v>1.6589373980126675E-2</v>
+        <v>1.5230428383125837E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6250,7 +6244,7 @@
       </c>
       <c r="P95" s="74">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.6689999999999995E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6289,7 +6283,7 @@
       </c>
       <c r="P96" s="53" cm="1">
         <f t="array" ref="P96">_FV(A1,"Beta")</f>
-        <v>0.92230000000000001</v>
+        <v>0.92779999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6366,7 +6360,7 @@
       </c>
       <c r="P98" s="50">
         <f>(P95)+((P96)*(P97-P95))</f>
-        <v>8.1237765000000003E-2</v>
+        <v>8.1306218E-2</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6480,7 +6474,7 @@
       </c>
       <c r="P101" s="50">
         <f>P100/P104</f>
-        <v>1.8634944169458236E-2</v>
+        <v>1.7134588509502481E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6519,7 +6513,7 @@
       </c>
       <c r="P102" s="54" cm="1">
         <f t="array" ref="P102">_FV(A1,"Market cap",TRUE)</f>
-        <v>41267380000</v>
+        <v>44949490768</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6558,7 +6552,7 @@
       </c>
       <c r="P103" s="50">
         <f>P102/P104</f>
-        <v>0.98136505583054179</v>
+        <v>0.98286541149049755</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6599,7 +6593,7 @@
       </c>
       <c r="P104" s="55">
         <f>P100+P102</f>
-        <v>42050998000</v>
+        <v>45733108768</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6721,7 +6715,7 @@
       </c>
       <c r="P106" s="59">
         <f>(P101*P93)+(P103*P98)</f>
-        <v>8.0410369553042163E-2</v>
+        <v>8.0544265746437707E-2</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6782,7 +6776,7 @@
       <c r="L108" s="77"/>
       <c r="M108" s="62">
         <f>M107*(1+P108)/(P109-P108)</f>
-        <v>38273070854.90403</v>
+        <v>38180808972.814819</v>
       </c>
       <c r="N108" s="63" t="s">
         <v>142</v>
@@ -6813,7 +6807,7 @@
       </c>
       <c r="M109" s="62">
         <f>M108+M107</f>
-        <v>40342070854.90403</v>
+        <v>40249808972.814819</v>
       </c>
       <c r="N109" s="63" t="s">
         <v>138</v>
@@ -6823,7 +6817,7 @@
       </c>
       <c r="P109" s="44">
         <f>P106</f>
-        <v>8.0410369553042163E-2</v>
+        <v>8.0544265746437707E-2</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
@@ -6844,7 +6838,7 @@
       </c>
       <c r="J111" s="54">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>30750448620.704472</v>
+        <v>30669671430.18943</v>
       </c>
       <c r="K111" s="25"/>
       <c r="L111" s="25"/>
@@ -6889,7 +6883,7 @@
       </c>
       <c r="J114" s="54">
         <f>J111+J112-J113</f>
-        <v>32672199620.704472</v>
+        <v>32591422430.18943</v>
       </c>
       <c r="K114" s="25"/>
       <c r="L114" s="25"/>
@@ -6919,7 +6913,7 @@
       </c>
       <c r="J116" s="68">
         <f>J114/J115</f>
-        <v>125.07862203304531</v>
+        <v>124.76938360408691</v>
       </c>
       <c r="K116" s="25"/>
       <c r="L116" s="25"/>
@@ -6934,7 +6928,7 @@
       </c>
       <c r="J117" s="69" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>172.82</v>
+        <v>188.24</v>
       </c>
       <c r="K117" s="25"/>
       <c r="L117" s="25"/>
@@ -6949,7 +6943,7 @@
       </c>
       <c r="J118" s="70">
         <f>J116/J117-1</f>
-        <v>-0.27624914921279187</v>
+        <v>-0.33717922012278523</v>
       </c>
       <c r="K118" s="25"/>
       <c r="L118" s="25"/>

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D20197-D0A4-F14A-AAE0-788F371FD3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F9DC5F-032C-8841-8AF3-E61BF0F6C921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2398,7 +2398,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2535,13 +2535,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>191.99</v>
+    <v>194.83</v>
     <v>92.25</v>
-    <v>0.92779999999999996</v>
-    <v>5.44</v>
-    <v>2.9759000000000001E-2</v>
-    <v>-0.04</v>
-    <v>-2.1250000000000002E-4</v>
+    <v>0.9345</v>
+    <v>-3.07</v>
+    <v>-1.5839000000000002E-2</v>
+    <v>-1.4173</v>
+    <v>-7.43E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7586</v>
@@ -2549,24 +2549,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>188.74</v>
+    <v>194.18</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.999669073441</v>
+    <v>45239.971182267967</v>
     <v>0</v>
-    <v>178.35</v>
-    <v>44949490768</v>
+    <v>189.12</v>
+    <v>45551237032</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>182.67</v>
-    <v>182.8</v>
-    <v>188.24</v>
-    <v>188.2</v>
+    <v>193.44</v>
+    <v>193.83</v>
+    <v>190.76</v>
+    <v>189.34270000000001</v>
     <v>238788200</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>3262990</v>
-    <v>2967728</v>
+    <v>2458560</v>
+    <v>2942952</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2728,9 +2728,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3150,10 +3150,10 @@
   <dimension ref="A1:AM119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomRight" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3816,15 +3816,15 @@
       </c>
       <c r="O16" s="36">
         <f>P102/H3</f>
-        <v>20.055670517518013</v>
+        <v>20.324159094356865</v>
       </c>
       <c r="P16" s="36">
         <f>P102/H25</f>
-        <v>-281.13990085249839</v>
+        <v>-284.90356718350296</v>
       </c>
       <c r="Q16" s="37">
         <f>P102/H107</f>
-        <v>66.405607338235143</v>
+        <v>67.294590181904667</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3937,15 +3937,15 @@
       </c>
       <c r="O19" s="36">
         <f>P102/I3</f>
-        <v>14.79575074654378</v>
+        <v>14.993823907834102</v>
       </c>
       <c r="P19" s="36">
         <f>P102/I28</f>
-        <v>77.75383284552845</v>
+        <v>78.794736260162608</v>
       </c>
       <c r="Q19" s="37">
         <f>P102/I107</f>
-        <v>65.65803501022495</v>
+        <v>66.537009979550106</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="Q22" s="40">
         <f>I107/P102</f>
-        <v>1.5230428383125837E-2</v>
+        <v>1.5029229601801256E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="P95" s="74">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="P96" s="53" cm="1">
         <f t="array" ref="P96">_FV(A1,"Beta")</f>
-        <v>0.92779999999999996</v>
+        <v>0.9345</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="P98" s="50">
         <f>(P95)+((P96)*(P97-P95))</f>
-        <v>8.1306218E-2</v>
+        <v>8.1492005000000006E-2</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="P101" s="50">
         <f>P100/P104</f>
-        <v>1.7134588509502481E-2</v>
+        <v>1.6912063271997159E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="P102" s="54" cm="1">
         <f t="array" ref="P102">_FV(A1,"Market cap",TRUE)</f>
-        <v>44949490768</v>
+        <v>45551237032</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="P103" s="50">
         <f>P102/P104</f>
-        <v>0.98286541149049755</v>
+        <v>0.98308793672800288</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="P104" s="55">
         <f>P100+P102</f>
-        <v>45733108768</v>
+        <v>46334855032</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="P106" s="59">
         <f>(P101*P93)+(P103*P98)</f>
-        <v>8.0544265746437707E-2</v>
+        <v>8.073680610488343E-2</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6776,7 +6776,7 @@
       <c r="L108" s="77"/>
       <c r="M108" s="62">
         <f>M107*(1+P108)/(P109-P108)</f>
-        <v>38180808972.814819</v>
+        <v>38048915038.463081</v>
       </c>
       <c r="N108" s="63" t="s">
         <v>142</v>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="M109" s="62">
         <f>M108+M107</f>
-        <v>40249808972.814819</v>
+        <v>40117915038.463081</v>
       </c>
       <c r="N109" s="63" t="s">
         <v>138</v>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="P109" s="44">
         <f>P106</f>
-        <v>8.0544265746437707E-2</v>
+        <v>8.073680610488343E-2</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="J111" s="54">
         <f>NPV(P109,I109,J109,K109,L109,M109)</f>
-        <v>30669671430.18943</v>
+        <v>30554201458.086014</v>
       </c>
       <c r="K111" s="25"/>
       <c r="L111" s="25"/>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="J114" s="54">
         <f>J111+J112-J113</f>
-        <v>32591422430.18943</v>
+        <v>32475952458.086014</v>
       </c>
       <c r="K114" s="25"/>
       <c r="L114" s="25"/>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="J116" s="68">
         <f>J114/J115</f>
-        <v>124.76938360408691</v>
+        <v>124.32733118139856</v>
       </c>
       <c r="K116" s="25"/>
       <c r="L116" s="25"/>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="J117" s="69" cm="1">
         <f t="array" ref="J117">_FV(A1,"Price")</f>
-        <v>188.24</v>
+        <v>190.76</v>
       </c>
       <c r="K117" s="25"/>
       <c r="L117" s="25"/>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="J118" s="70">
         <f>J116/J117-1</f>
-        <v>-0.33717922012278523</v>
+        <v>-0.34825261490145432</v>
       </c>
       <c r="K118" s="25"/>
       <c r="L118" s="25"/>

--- a/Technology/Software/Crowdstrike.xlsx
+++ b/Technology/Software/Crowdstrike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF23AF6C-6D2E-B949-B44D-30B25D10DDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E58F71-C936-F04B-A878-2192FF75D52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1697,6 +1697,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1716,7 +1718,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1729,6 +1731,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1854,13 +1858,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>238.48</v>
+    <v>244.64</v>
     <v>92.25</v>
-    <v>1.0503</v>
-    <v>-1.96</v>
-    <v>-8.2699999999999996E-3</v>
-    <v>-0.02</v>
-    <v>-8.5100000000000009E-5</v>
+    <v>1.05</v>
+    <v>2.38</v>
+    <v>9.9100000000000004E-3</v>
+    <v>0.94</v>
+    <v>3.875E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
     <v>7745</v>
@@ -1868,24 +1872,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>236.65</v>
+    <v>243.49</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.039529490627</v>
+    <v>45269.041383066404</v>
     <v>0</v>
-    <v>229.8</v>
-    <v>56122390646</v>
+    <v>237.63</v>
+    <v>58247121240</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>235.72</v>
-    <v>236.99</v>
-    <v>235.03</v>
-    <v>235.01</v>
+    <v>238.34</v>
+    <v>240.17</v>
+    <v>242.55</v>
+    <v>243.49</v>
     <v>240144800</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>3868949</v>
-    <v>3315219</v>
+    <v>1886724</v>
+    <v>3572248</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2047,9 +2051,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2493,9 +2497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A213" sqref="A213"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10483,7 +10487,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10536,7 +10540,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>56122390646</v>
+        <v>58247121240</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>195</v>
@@ -10556,15 +10560,15 @@
         <v>197</v>
       </c>
       <c r="G3" s="38">
-        <f>AVERAGE(Financials!H129:M129)</f>
-        <v>4.6258903843955923E-3</v>
+        <f>AVERAGE(Financials!F129:M129)</f>
+        <v>1.3695917662005161E-2</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>198</v>
       </c>
       <c r="I3" s="39">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>37745753357.940239</v>
+        <v>37651511598.451752</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>199</v>
@@ -10609,21 +10613,21 @@
       </c>
       <c r="G4" s="48">
         <f>A5*(1+(5*G3))</f>
-        <v>245699217.60591301</v>
+        <v>256589817.03879347</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>205</v>
       </c>
       <c r="I4" s="49">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>29969076371.734875</v>
+        <v>29886751239.031376</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>206</v>
       </c>
       <c r="K4" s="50" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-8.2699999999999996E-3</v>
+        <v>9.9100000000000004E-3</v>
       </c>
       <c r="L4" s="51" t="s">
         <v>207</v>
@@ -10668,14 +10672,14 @@
       </c>
       <c r="I5" s="49">
         <f>I4+G5-G6</f>
-        <v>32104387371.734875</v>
+        <v>32022062239.031376</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>213</v>
       </c>
       <c r="K5" s="52" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>235.03</v>
+        <v>242.55</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>214</v>
@@ -10695,7 +10699,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <f>O20/F10</f>
-        <v>18.473466308755761</v>
+        <v>19.172850967741937</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>216</v>
@@ -10723,14 +10727,14 @@
       </c>
       <c r="I6" s="50">
         <f>N25</f>
-        <v>8.3709915761525769E-2</v>
+        <v>8.3856866721152445E-2</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>219</v>
       </c>
       <c r="K6" s="57">
         <f>I5/G4</f>
-        <v>130.66540335194884</v>
+        <v>124.79864792993715</v>
       </c>
       <c r="L6" s="58" t="s">
         <v>220</v>
@@ -10750,14 +10754,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <f>O20/F12</f>
-        <v>81.691980561863176</v>
+        <v>84.78474707423581</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="61">
         <f>F15/A3</f>
-        <v>1.2152012630784253E-2</v>
+        <v>1.1708733161075962E-2</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>223</v>
@@ -10784,7 +10788,7 @@
       </c>
       <c r="K7" s="67">
         <f>K6/K5-1</f>
-        <v>-0.44404797961133113</v>
+        <v>-0.48547248843563329</v>
       </c>
       <c r="L7" s="68" t="s">
         <v>226</v>
@@ -11111,7 +11115,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
@@ -11158,7 +11162,7 @@
       </c>
       <c r="O15" s="93" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0503</v>
+        <v>1.05</v>
       </c>
       <c r="P15" s="43"/>
       <c r="Q15" s="43"/>
@@ -11263,7 +11267,7 @@
       </c>
       <c r="O17" s="96">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.6076887000000005E-2</v>
+        <v>8.6139500000000008E-2</v>
       </c>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
@@ -11345,7 +11349,7 @@
       </c>
       <c r="O20" s="102" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>56122390646</v>
+        <v>58247121240</v>
       </c>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
@@ -11375,7 +11379,7 @@
       </c>
       <c r="O21" s="102">
         <f>O19+O20</f>
-        <v>56916756646</v>
+        <v>59041487240</v>
       </c>
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
@@ -11403,7 +11407,7 @@
       </c>
       <c r="O22" s="103">
         <f>(O19/O21)</f>
-        <v>1.3956628009228395E-2</v>
+        <v>1.3454369751408044E-2</v>
       </c>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
@@ -11428,7 +11432,7 @@
       </c>
       <c r="O23" s="104">
         <f>O20/O21</f>
-        <v>0.98604337199077163</v>
+        <v>0.98654563024859199</v>
       </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
@@ -11472,7 +11476,7 @@
       <c r="M25" s="78"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.3709915761525769E-2</v>
+        <v>8.3856866721152445E-2</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="43"/>
